--- a/files/Dashboards_Website.xlsx
+++ b/files/Dashboards_Website.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jschneid\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAF8E90-5C2F-4A66-81AB-2B45250D3403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00A7299-B658-465C-9142-265AEA51D8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28392" yWindow="1116" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -623,9 +623,6 @@
     <t>https://dashboard.chorusaccess.org/csiro#/summary</t>
   </si>
   <si>
-    <t>CHORUS Dashboard: Intelligence Advanced Research Projects Activity (IARPA)</t>
-  </si>
-  <si>
     <t>USA</t>
   </si>
   <si>
@@ -701,9 +698,6 @@
     <t>CHORUS Dashboard: Office of the Department of National Intelligence</t>
   </si>
   <si>
-    <t>Office of the [Director] of National Intelligence (ODNI)</t>
-  </si>
-  <si>
     <t>https://ror.org/01v3fsc55</t>
   </si>
   <si>
@@ -860,143 +854,149 @@
     <t>Apache-2.0</t>
   </si>
   <si>
-    <t xml:space="preserve">Website: https://open.coki.ac/data/ ; Dataset: https://doi.org/10.5281/zenodo.14861895 ; Website code: https://doi.org/10.5281/zenodo.13294971 ; Publication: https://doi.org/10.3998/jep.3398
+    <t>ODbL-1.0</t>
+  </si>
+  <si>
+    <t>https://subugoe.github.io/hoaddash/about.html</t>
+  </si>
+  <si>
+    <t>license stated at the bottom of the page, concerns only the text of the dashboard</t>
+  </si>
+  <si>
+    <t>https://graph.openaire.eu/docs/downloads/full-graph/ ; https://doi.org/10.5281/zenodo.14851262 ; https://graph.openaire.eu/faq</t>
+  </si>
+  <si>
+    <t>based on OpenAIRE Graph https://graph.openaire.eu/what-is-the-openaire-graph#Id-What</t>
+  </si>
+  <si>
+    <t>etalab-2.0</t>
+  </si>
+  <si>
+    <t>Data and source code here: https://frenchopensciencemonitor.esr.gouv.fr/about/opendata</t>
+  </si>
+  <si>
+    <t>2005–2025</t>
+  </si>
+  <si>
+    <t>2011–2023</t>
+  </si>
+  <si>
+    <t>2014–2025</t>
+  </si>
+  <si>
+    <t>2020–2024</t>
+  </si>
+  <si>
+    <t>2020–2025</t>
+  </si>
+  <si>
+    <t>2017–2025</t>
+  </si>
+  <si>
+    <t>2016–2025</t>
+  </si>
+  <si>
+    <t>2013–2025</t>
+  </si>
+  <si>
+    <t>Data are available for download here: https://oaindikator.dk/en/data, technical description found here: https://oaindikator.dk/oa-docs/technical/Open_Access_Indicator_2016_Technical_en.pdf</t>
+  </si>
+  <si>
+    <t>Dashboard is inactive, most recent versions are broken links</t>
+  </si>
+  <si>
+    <t>Data source: https://oamonitor.ch/wiki/source-databases/</t>
+  </si>
+  <si>
+    <t>sources: https://oamonitor.obvsg.at/faq</t>
+  </si>
+  <si>
+    <t>restricted, open</t>
+  </si>
+  <si>
+    <t>https://www.oamonitor.uzh.ch/de/informationen/lizenzen.html</t>
+  </si>
+  <si>
+    <t>Data source: https://bibliotecnica.upc.edu/en/observatori#metodologia</t>
+  </si>
+  <si>
+    <t>https://medbib-charite.github.io/oa-dashboard/#about</t>
+  </si>
+  <si>
+    <t>https://www.resources.osc.lmu.de/bibliography/</t>
+  </si>
+  <si>
+    <t>2016–2022</t>
+  </si>
+  <si>
+    <t>2017–2023</t>
+  </si>
+  <si>
+    <t>2016–2023</t>
+  </si>
+  <si>
+    <t>1990–2022</t>
+  </si>
+  <si>
+    <t>2000–2025</t>
+  </si>
+  <si>
+    <t>Part of</t>
+  </si>
+  <si>
+    <t>Austrian Transition to Open Access 2 (AT2OA²), Federal Ministry of Education, Science and Research (BMBWF)</t>
+  </si>
+  <si>
+    <t>2000–2024</t>
+  </si>
+  <si>
+    <t>2007–2024</t>
+  </si>
+  <si>
+    <t>Universiteitsbibliotheken &amp; Nationale Bibliotheek (UKB); SURF</t>
+  </si>
+  <si>
+    <t>N/A, https://ror.org/009vhk114</t>
+  </si>
+  <si>
+    <t>1897–2024</t>
+  </si>
+  <si>
+    <t>CHORUS Dashboard: Intelligence Advanced Research Projects Activity</t>
+  </si>
+  <si>
+    <t>Office of the Director of National Intelligence (ODNI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website: https://open.coki.ac/data/ ; dataset: https://doi.org/10.5281/zenodo.14861895 ; website code: https://doi.org/10.5281/zenodo.13294971 ; publication: https://doi.org/10.3998/jep.3398
 </t>
   </si>
   <si>
-    <t>ODbL-1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/OpenAPC/openapc-de; https://github.com/OpenAPC/openapc-de/wiki/Data-Submission-Handout ; Software: https://doi.org/10.5281/zenodo.14871502 ; Name from this website: https://openapc.net/
+    <t xml:space="preserve">dataset: https://github.com/OpenAPC/openapc-de ; license: https://github.com/OpenAPC/openapc-de/wiki/Data-Submission-Handout ; software: https://doi.org/10.5281/zenodo.14871502 ; name from this website: https://openapc.net/
 </t>
   </si>
   <si>
-    <t>https://subugoe.github.io/hoaddash/about.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lookerstudio.google.com/reporting/7600ec85-86e9-4173-9ef5-1a082f076a5e/page/p_4ml554plmd?s=kn7efN83ZIY ; Software: https://doi.org/10.5281/zenodo.14619111 ; data source: https://the-academic-observatory.gitbook.io/bas/dashboard-overview/dashboard-data-sources
+    <t xml:space="preserve">software: https://doi.org/10.5281/zenodo.14619111 ; data source: https://the-academic-observatory.gitbook.io/bas/dashboard-overview/dashboard-data-sources
 </t>
   </si>
   <si>
-    <t>license stated at the bottom of the page, concerns only the text of the dashboard</t>
-  </si>
-  <si>
-    <t>https://graph.openaire.eu/docs/downloads/full-graph/ ; https://doi.org/10.5281/zenodo.14851262 ; https://graph.openaire.eu/faq</t>
-  </si>
-  <si>
-    <t>based on OpenAIRE Graph https://graph.openaire.eu/what-is-the-openaire-graph#Id-What</t>
-  </si>
-  <si>
-    <t>etalab-2.0</t>
-  </si>
-  <si>
-    <t>Data and source code here: https://frenchopensciencemonitor.esr.gouv.fr/about/opendata</t>
-  </si>
-  <si>
-    <t>Licenses: bottom of page, sources: https://jugit.fz-juelich.de/synoa/oam-dokumentation/-/wikis/Quelldatenbanken/Quelldatenbanken</t>
-  </si>
-  <si>
-    <t>2005–2025</t>
-  </si>
-  <si>
-    <t>2011–2023</t>
-  </si>
-  <si>
-    <t>2014–2025</t>
-  </si>
-  <si>
-    <t>2020–2024</t>
-  </si>
-  <si>
-    <t>2020–2025</t>
-  </si>
-  <si>
-    <t>2017–2025</t>
-  </si>
-  <si>
-    <t>2016–2025</t>
-  </si>
-  <si>
-    <t>2013–2025</t>
-  </si>
-  <si>
-    <t>Data are available for download here: https://oaindikator.dk/en/data, technical description found here: https://oaindikator.dk/oa-docs/technical/Open_Access_Indicator_2016_Technical_en.pdf</t>
-  </si>
-  <si>
-    <t>Dashboard is inactive, most recent versions are broken links</t>
-  </si>
-  <si>
-    <t>Data source: https://oamonitor.ch/wiki/source-databases/</t>
-  </si>
-  <si>
-    <t>sources: https://oamonitor.obvsg.at/faq</t>
-  </si>
-  <si>
-    <t>restricted, open</t>
-  </si>
-  <si>
-    <t>website license at bottom, Data source (Norwegian): https://www.openscience.no/oa-barometer/metode-beregning-av-apen-tilgang</t>
-  </si>
-  <si>
-    <t>https://www.oamonitor.uzh.ch/de/informationen/lizenzen.html</t>
-  </si>
-  <si>
-    <t>Data source: https://bibliotecnica.upc.edu/en/observatori#metodologia</t>
-  </si>
-  <si>
-    <t>https://medbib-charite.github.io/oa-dashboard/#about</t>
-  </si>
-  <si>
-    <t>https://www.resources.osc.lmu.de/bibliography/</t>
-  </si>
-  <si>
-    <t>2016–2022</t>
-  </si>
-  <si>
-    <t>2017–2023</t>
-  </si>
-  <si>
-    <t>2016–2023</t>
-  </si>
-  <si>
-    <t>1990–2022</t>
-  </si>
-  <si>
-    <t>2000–2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">software: https://doi.org/10.5281/zenodo.14192862 Data set: https://doi.org/10.5281/zenodo.10890383
+    <t>based on OpenAIRE Graph which has CC-BY-4.0 for its data license: https://graph.openaire.eu/what-is-the-openaire-graph#Id-What</t>
+  </si>
+  <si>
+    <t>Licenses at bottom of page; sources: https://jugit.fz-juelich.de/synoa/oam-dokumentation/-/wikis/Quelldatenbanken/Quelldatenbanken</t>
+  </si>
+  <si>
+    <t>website license at bottom, data source (Norwegian): https://www.openscience.no/oa-barometer/metode-beregning-av-apen-tilgang</t>
+  </si>
+  <si>
+    <t>https://quest-dashboard.charite.de/#tabMethods, license: https://github.com/quest-bih/dashboard</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.14627194, license: https://github.com/quest-bih/open-earthsciences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">software: https://doi.org/10.5281/zenodo.14192862 ; data set: https://doi.org/10.5281/zenodo.10890383
 </t>
-  </si>
-  <si>
-    <t>based on OpenAIRE Graph which has CC-BY-4.0 for its data license https://graph.openaire.eu/what-is-the-openaire-graph#Id-What</t>
-  </si>
-  <si>
-    <t>Part of</t>
-  </si>
-  <si>
-    <t>Austrian Transition to Open Access 2 (AT2OA²), Federal Ministry of Education, Science and Research (BMBWF)</t>
-  </si>
-  <si>
-    <t>2000–2024</t>
-  </si>
-  <si>
-    <t>2007–2024</t>
-  </si>
-  <si>
-    <t>Universiteitsbibliotheken &amp; Nationale Bibliotheek (UKB); SURF</t>
-  </si>
-  <si>
-    <t>N/A, https://ror.org/009vhk114</t>
-  </si>
-  <si>
-    <t>https://quest-dashboard.charite.de/#tabMethods, Lizenz: https://github.com/quest-bih/dashboard</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5281/zenodo.14627194, Lizenz: https://github.com/quest-bih/open-earthsciences</t>
-  </si>
-  <si>
-    <t>1897–2024</t>
   </si>
 </sst>
 </file>
@@ -1427,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1486,10 +1486,10 @@
         <v>159</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1500,7 +1500,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>85</v>
@@ -1521,16 +1521,16 @@
         <v>56</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>148</v>
@@ -1544,7 +1544,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>87</v>
@@ -1568,13 +1568,13 @@
         <v>148</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>156</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>148</v>
@@ -1582,13 +1582,13 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>87</v>
@@ -1609,16 +1609,16 @@
         <v>56</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>148</v>
@@ -1632,7 +1632,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>124</v>
@@ -1653,16 +1653,16 @@
         <v>56</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>148</v>
@@ -1676,7 +1676,7 @@
         <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>91</v>
@@ -1697,16 +1697,16 @@
         <v>56</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>148</v>
@@ -1720,7 +1720,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>92</v>
@@ -1741,16 +1741,16 @@
         <v>152</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>148</v>
@@ -1758,13 +1758,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>135</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>134</v>
@@ -1785,16 +1785,16 @@
         <v>56</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>148</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>148</v>
@@ -1808,7 +1808,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>157</v>
@@ -1852,7 +1852,7 @@
         <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>79</v>
@@ -1873,7 +1873,7 @@
         <v>56</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>148</v>
@@ -1882,7 +1882,7 @@
         <v>148</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>148</v>
@@ -1896,7 +1896,7 @@
         <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>80</v>
@@ -1920,13 +1920,13 @@
         <v>148</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>148</v>
@@ -1940,7 +1940,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>94</v>
@@ -1961,16 +1961,16 @@
         <v>130</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>148</v>
@@ -1984,7 +1984,7 @@
         <v>161</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>162</v>
@@ -2005,19 +2005,19 @@
         <v>154</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2028,7 +2028,7 @@
         <v>168</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>169</v>
@@ -2049,19 +2049,19 @@
         <v>154</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2072,7 +2072,7 @@
         <v>64</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>12</v>
@@ -2093,19 +2093,19 @@
         <v>153</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2116,7 +2116,7 @@
         <v>170</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>176</v>
@@ -2137,19 +2137,19 @@
         <v>154</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -2160,7 +2160,7 @@
         <v>173</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>175</v>
@@ -2181,19 +2181,19 @@
         <v>174</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2204,7 +2204,7 @@
         <v>179</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>180</v>
@@ -2225,19 +2225,19 @@
         <v>138</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2248,7 +2248,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>96</v>
@@ -2269,16 +2269,16 @@
         <v>153</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>148</v>
@@ -2292,7 +2292,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>98</v>
@@ -2316,13 +2316,13 @@
         <v>148</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>148</v>
@@ -2336,7 +2336,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>100</v>
@@ -2360,13 +2360,13 @@
         <v>148</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>148</v>
@@ -2380,7 +2380,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D22" t="s">
         <v>102</v>
@@ -2407,10 +2407,10 @@
         <v>148</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>148</v>
@@ -2424,7 +2424,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>106</v>
@@ -2454,7 +2454,7 @@
         <v>148</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>148</v>
@@ -2468,7 +2468,7 @@
         <v>139</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>125</v>
@@ -2512,7 +2512,7 @@
         <v>68</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>83</v>
@@ -2556,10 +2556,10 @@
         <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>129</v>
@@ -2577,16 +2577,16 @@
         <v>56</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>148</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>148</v>
@@ -2600,7 +2600,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>109</v>
@@ -2630,7 +2630,7 @@
         <v>132</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>148</v>
@@ -2644,7 +2644,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>111</v>
@@ -2665,16 +2665,16 @@
         <v>56</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>148</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>148</v>
@@ -2688,7 +2688,7 @@
         <v>195</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>192</v>
@@ -2726,16 +2726,16 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>196</v>
+        <v>309</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>148</v>
@@ -2747,7 +2747,7 @@
         <v>15</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>138</v>
@@ -2770,19 +2770,19 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>203</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>53</v>
@@ -2791,7 +2791,7 @@
         <v>15</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>138</v>
@@ -2814,19 +2814,19 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C32" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>53</v>
@@ -2835,7 +2835,7 @@
         <v>15</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>138</v>
@@ -2858,19 +2858,19 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>53</v>
@@ -2879,7 +2879,7 @@
         <v>15</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>138</v>
@@ -2902,19 +2902,19 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>53</v>
@@ -2923,7 +2923,7 @@
         <v>15</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>138</v>
@@ -2946,19 +2946,19 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>53</v>
@@ -2967,7 +2967,7 @@
         <v>15</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>138</v>
@@ -2990,19 +2990,19 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>223</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>53</v>
@@ -3011,7 +3011,7 @@
         <v>15</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>138</v>
@@ -3034,19 +3034,19 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>226</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>53</v>
@@ -3055,7 +3055,7 @@
         <v>15</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>138</v>
@@ -3078,19 +3078,19 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="E38" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>53</v>
@@ -3099,7 +3099,7 @@
         <v>15</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>138</v>
@@ -3122,19 +3122,19 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="E39" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>53</v>
@@ -3143,7 +3143,7 @@
         <v>15</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>138</v>
@@ -3166,19 +3166,19 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="E40" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>53</v>
@@ -3187,7 +3187,7 @@
         <v>15</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>138</v>
@@ -3210,19 +3210,19 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="E41" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>53</v>
@@ -3231,7 +3231,7 @@
         <v>15</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>138</v>
@@ -3254,19 +3254,19 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="E42" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>248</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>53</v>
@@ -3275,7 +3275,7 @@
         <v>15</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>138</v>
@@ -3304,7 +3304,7 @@
         <v>164</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>165</v>
@@ -3325,19 +3325,19 @@
         <v>56</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -3348,7 +3348,7 @@
         <v>66</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>104</v>
@@ -3369,19 +3369,19 @@
         <v>56</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -3392,13 +3392,13 @@
         <v>24</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>53</v>
@@ -3413,19 +3413,19 @@
         <v>153</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -3436,7 +3436,7 @@
         <v>30</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>126</v>
@@ -3457,16 +3457,16 @@
         <v>56</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>148</v>
@@ -3480,7 +3480,7 @@
         <v>31</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>116</v>
@@ -3507,10 +3507,10 @@
         <v>148</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>148</v>
@@ -3524,7 +3524,7 @@
         <v>32</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>127</v>
@@ -3545,13 +3545,13 @@
         <v>154</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>148</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>317</v>
@@ -3568,7 +3568,7 @@
         <v>33</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>119</v>
@@ -3595,10 +3595,10 @@
         <v>148</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>148</v>
@@ -3612,7 +3612,7 @@
         <v>34</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>128</v>
@@ -3633,10 +3633,10 @@
         <v>56</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>132</v>
@@ -3656,7 +3656,7 @@
         <v>35</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>122</v>
@@ -3686,7 +3686,7 @@
         <v>132</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>148</v>
@@ -3700,7 +3700,7 @@
         <v>39</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>137</v>
@@ -3721,16 +3721,16 @@
         <v>138</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>148</v>
@@ -3744,7 +3744,7 @@
         <v>182</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>184</v>
@@ -3765,19 +3765,19 @@
         <v>153</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -3788,7 +3788,7 @@
         <v>72</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>81</v>
@@ -3809,19 +3809,19 @@
         <v>153</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -3829,10 +3829,10 @@
         <v>187</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>188</v>
@@ -3853,19 +3853,19 @@
         <v>153</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">

--- a/files/Dashboards_Website.xlsx
+++ b/files/Dashboards_Website.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jschneid\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD933CA5-154D-41BF-95E8-EE7495AC53C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B951F4A5-9359-43D0-9B8C-07A428ED8E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="11856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="333">
   <si>
     <t>NAME</t>
   </si>
@@ -997,6 +997,45 @@
   </si>
   <si>
     <t>sources: https://oamonitor.obvsg.at/faq, license: https://github.com/mroes/OpenAccessDataProcessor?tab=readme-ov-file</t>
+  </si>
+  <si>
+    <t>UNIL Open Access barometer</t>
+  </si>
+  <si>
+    <t>https://www.unil.ch/unil/en/home/menuinst/recherche/open-science/open-access/barometre-open-access-unil.html</t>
+  </si>
+  <si>
+    <t>Université de Lausanne</t>
+  </si>
+  <si>
+    <t>https://ror.org/019whta54</t>
+  </si>
+  <si>
+    <t>regarding copyright: https://wp.unil.ch/infoserval/legal-information?lang=en</t>
+  </si>
+  <si>
+    <t>Open Access Monitoring</t>
+  </si>
+  <si>
+    <t>https://finelib.fi/negotiations/open-publications/</t>
+  </si>
+  <si>
+    <t>FinELib</t>
+  </si>
+  <si>
+    <t>Monitoring of HEAL-Link Open Access Programs</t>
+  </si>
+  <si>
+    <t>https://scholarly.heal-link.gr/en/monitoring-open-access/</t>
+  </si>
+  <si>
+    <t>2019–2023</t>
+  </si>
+  <si>
+    <t>HEAL-Link</t>
+  </si>
+  <si>
+    <t>GRC</t>
   </si>
 </sst>
 </file>
@@ -1427,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2680,77 +2719,77 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>191</v>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="N29" s="7" t="s">
-        <v>77</v>
+      <c r="H29" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>196</v>
+        <v>325</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>198</v>
+        <v>326</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>199</v>
+        <v>327</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>148</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>148</v>
@@ -2764,48 +2803,48 @@
       <c r="M30" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="N30" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>200</v>
+      <c r="N30" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="F31" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>204</v>
+      <c r="H31" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="M31" s="2" t="s">
+      <c r="J31" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M31" s="7" t="s">
         <v>148</v>
       </c>
       <c r="N31" s="7" t="s">
@@ -2814,19 +2853,19 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>208</v>
+        <v>199</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>53</v>
@@ -2837,7 +2876,7 @@
       <c r="H32" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J32" s="2" t="s">
@@ -2858,19 +2897,19 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>53</v>
@@ -2879,7 +2918,7 @@
         <v>15</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>138</v>
@@ -2902,19 +2941,19 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>216</v>
+        <v>205</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>53</v>
@@ -2946,19 +2985,19 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>53</v>
@@ -2990,19 +3029,19 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>228</v>
+        <v>213</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>53</v>
@@ -3034,19 +3073,19 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>53</v>
@@ -3078,19 +3117,19 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>53</v>
@@ -3122,19 +3161,19 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>53</v>
@@ -3166,19 +3205,19 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>53</v>
@@ -3210,19 +3249,19 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>293</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>53</v>
@@ -3254,19 +3293,19 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>53</v>
@@ -3298,19 +3337,19 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>163</v>
+        <v>241</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>164</v>
+        <v>242</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>165</v>
+        <v>243</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>166</v>
+        <v>244</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>53</v>
@@ -3319,42 +3358,42 @@
         <v>15</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>56</v>
+        <v>197</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>271</v>
+        <v>148</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>271</v>
+        <v>148</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>256</v>
+        <v>148</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>65</v>
+        <v>245</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>66</v>
+        <v>246</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>105</v>
+        <v>265</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>53</v>
@@ -3363,42 +3402,42 @@
         <v>15</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>56</v>
+        <v>197</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>271</v>
+        <v>148</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>271</v>
+        <v>148</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>256</v>
+        <v>148</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>315</v>
+        <v>165</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>53</v>
@@ -3407,10 +3446,10 @@
         <v>15</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>271</v>
@@ -3430,28 +3469,28 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>30</v>
+        <v>65</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>114</v>
+        <v>266</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>56</v>
@@ -3460,77 +3499,77 @@
         <v>271</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>148</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>31</v>
+        <v>67</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>117</v>
+        <v>314</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>148</v>
+        <v>271</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>148</v>
+        <v>271</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>297</v>
+        <v>132</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>148</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>52</v>
@@ -3539,22 +3578,22 @@
         <v>29</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>154</v>
+        <v>56</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>148</v>
+        <v>270</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>297</v>
+        <v>132</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>148</v>
@@ -3562,19 +3601,19 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>52</v>
@@ -3583,7 +3622,7 @@
         <v>29</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>56</v>
@@ -3598,7 +3637,7 @@
         <v>297</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>148</v>
@@ -3606,19 +3645,19 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>52</v>
@@ -3630,19 +3669,19 @@
         <v>43</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>273</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>271</v>
+        <v>148</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M50" s="5" t="s">
-        <v>317</v>
+        <v>297</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>148</v>
@@ -3650,19 +3689,19 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>52</v>
@@ -3683,10 +3722,10 @@
         <v>148</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>132</v>
+        <v>297</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>148</v>
@@ -3694,19 +3733,19 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>39</v>
+        <v>75</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>52</v>
@@ -3718,10 +3757,10 @@
         <v>43</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>271</v>
@@ -3729,8 +3768,8 @@
       <c r="L52" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="M52" s="2" t="s">
-        <v>308</v>
+      <c r="M52" s="5" t="s">
+        <v>317</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>148</v>
@@ -3738,19 +3777,19 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>182</v>
+        <v>76</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>52</v>
@@ -3759,42 +3798,42 @@
         <v>29</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>271</v>
+        <v>148</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>271</v>
+        <v>148</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>256</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>81</v>
+        <v>307</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>52</v>
@@ -3806,10 +3845,10 @@
         <v>43</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>271</v>
@@ -3818,27 +3857,27 @@
         <v>132</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>256</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>187</v>
+        <v>320</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>249</v>
+        <v>321</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>188</v>
+        <v>322</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>189</v>
+        <v>323</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>52</v>
@@ -3847,26 +3886,161 @@
         <v>29</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>190</v>
+        <v>49</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>271</v>
+        <v>148</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>271</v>
+        <v>148</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M55" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M56" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="N55" s="2" t="s">
+      <c r="N56" s="2" t="s">
         <v>256</v>
       </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="5"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D65" s="4"/>
@@ -3929,33 +4103,33 @@
     <hyperlink ref="B20" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="B21" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="B22" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B44" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B46" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="B23" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="B25" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B54" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B46" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B47" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B48" r:id="rId18" location="tabStart" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B49" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B50" r:id="rId20" location="tabOA" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B51" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B57" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B48" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B49" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B50" r:id="rId18" location="tabStart" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B51" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B52" r:id="rId20" location="tabOA" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B53" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="B10" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="B9" r:id="rId23" xr:uid="{2E978BF9-FAC6-4434-8A61-095820344F8E}"/>
     <hyperlink ref="B6" r:id="rId24" xr:uid="{7DE1F29E-C0EB-4D5D-AE2E-454D5BEF365B}"/>
     <hyperlink ref="B28" r:id="rId25" xr:uid="{3B9FAA60-C30C-46CE-96E3-EE5C81E2F539}"/>
     <hyperlink ref="B24" r:id="rId26" xr:uid="{4D50D363-EC52-4C94-B2F7-1696191B5D4E}"/>
-    <hyperlink ref="B45" r:id="rId27" xr:uid="{B9C038C6-1B26-46B2-9989-388377D3A1E4}"/>
+    <hyperlink ref="B47" r:id="rId27" xr:uid="{B9C038C6-1B26-46B2-9989-388377D3A1E4}"/>
     <hyperlink ref="B27" r:id="rId28" xr:uid="{F77EA1F6-9ABC-4FEF-B834-6397EA503F9C}"/>
     <hyperlink ref="B26" r:id="rId29" xr:uid="{E7B74F71-7B2B-4907-B7F2-A8ADE38CD488}"/>
     <hyperlink ref="E3" r:id="rId30" xr:uid="{3ADB5C4A-E316-42AC-AEB5-5C03EBAA513E}"/>
-    <hyperlink ref="E54" r:id="rId31" xr:uid="{9601B733-7355-4C0B-9C0E-F6BCC4EA8DE9}"/>
+    <hyperlink ref="E57" r:id="rId31" xr:uid="{9601B733-7355-4C0B-9C0E-F6BCC4EA8DE9}"/>
     <hyperlink ref="E12" r:id="rId32" xr:uid="{D541F439-354D-4A23-AC17-3748FA08F9A2}"/>
-    <hyperlink ref="E46" r:id="rId33" xr:uid="{6232C42B-B80A-40CE-858B-59ED7C0E2E04}"/>
-    <hyperlink ref="E47" r:id="rId34" xr:uid="{58801C6C-6A1C-4AEC-BC83-814992A0795E}"/>
-    <hyperlink ref="E48" r:id="rId35" display="https://ror.org/001w7jn25" xr:uid="{F9BD791C-817E-4AD2-9AC8-EE07210D4210}"/>
-    <hyperlink ref="E49" r:id="rId36" xr:uid="{A8AE3B95-8296-4F85-B144-496311EE9374}"/>
-    <hyperlink ref="E50" r:id="rId37" display="https://ror.org/046ak2485" xr:uid="{C29AA756-D996-4217-891B-97B7A3C30910}"/>
-    <hyperlink ref="E51" r:id="rId38" xr:uid="{1D2EE263-E95F-46C3-AF25-593CA4061797}"/>
+    <hyperlink ref="E48" r:id="rId33" xr:uid="{6232C42B-B80A-40CE-858B-59ED7C0E2E04}"/>
+    <hyperlink ref="E49" r:id="rId34" xr:uid="{58801C6C-6A1C-4AEC-BC83-814992A0795E}"/>
+    <hyperlink ref="E50" r:id="rId35" display="https://ror.org/001w7jn25" xr:uid="{F9BD791C-817E-4AD2-9AC8-EE07210D4210}"/>
+    <hyperlink ref="E51" r:id="rId36" xr:uid="{A8AE3B95-8296-4F85-B144-496311EE9374}"/>
+    <hyperlink ref="E52" r:id="rId37" display="https://ror.org/046ak2485" xr:uid="{C29AA756-D996-4217-891B-97B7A3C30910}"/>
+    <hyperlink ref="E53" r:id="rId38" xr:uid="{1D2EE263-E95F-46C3-AF25-593CA4061797}"/>
     <hyperlink ref="E2" r:id="rId39" xr:uid="{7CDDC8F0-EDA1-45AE-808E-11EDE8ED16C8}"/>
     <hyperlink ref="E5" r:id="rId40" xr:uid="{3A0FC5E2-BB0B-491F-A2BB-C21F3A80CBE7}"/>
     <hyperlink ref="E6" r:id="rId41" xr:uid="{2BC3348D-A624-44A6-8799-21F5E041567A}"/>
@@ -3967,62 +4141,66 @@
     <hyperlink ref="E23" r:id="rId47" xr:uid="{0548E347-4912-43D7-A622-2508B2333351}"/>
     <hyperlink ref="E26" r:id="rId48" xr:uid="{A8AAA73B-8AA0-4286-8546-B00725169F40}"/>
     <hyperlink ref="E8" r:id="rId49" xr:uid="{AA26F3F5-37F5-4224-8CD6-D258C4FAA10D}"/>
-    <hyperlink ref="E52" r:id="rId50" xr:uid="{33BA3911-157F-4B5F-B224-926A665413ED}"/>
+    <hyperlink ref="E54" r:id="rId50" xr:uid="{33BA3911-157F-4B5F-B224-926A665413ED}"/>
     <hyperlink ref="B8" r:id="rId51" xr:uid="{09FCB9D2-25B2-4442-A69D-77E3413519EF}"/>
-    <hyperlink ref="B52" r:id="rId52" xr:uid="{4B739AEA-7F3F-45D6-B075-72568EA43671}"/>
-    <hyperlink ref="E43" r:id="rId53" xr:uid="{11697F8A-9521-43AE-95AC-F7C8DC927828}"/>
+    <hyperlink ref="B54" r:id="rId52" xr:uid="{4B739AEA-7F3F-45D6-B075-72568EA43671}"/>
+    <hyperlink ref="E45" r:id="rId53" xr:uid="{11697F8A-9521-43AE-95AC-F7C8DC927828}"/>
     <hyperlink ref="E16" r:id="rId54" xr:uid="{00FFFA05-4F61-43C4-B140-6BB688AA3AB5}"/>
     <hyperlink ref="E18" r:id="rId55" xr:uid="{BCDD8F9A-1A73-459B-BD95-87BA9F6737EA}"/>
-    <hyperlink ref="E53" r:id="rId56" xr:uid="{983DC9EF-701A-429D-80E1-7BCF0B0AB211}"/>
-    <hyperlink ref="E55" r:id="rId57" xr:uid="{CA6D0EA0-A9E8-4135-8FF7-6D68CDEAA7CD}"/>
-    <hyperlink ref="E29" r:id="rId58" xr:uid="{0CDA4E31-1E14-4458-A0AC-AD565254D257}"/>
-    <hyperlink ref="E31" r:id="rId59" xr:uid="{DF544658-C5B8-453E-A253-D7E24EC78999}"/>
-    <hyperlink ref="B29" r:id="rId60" location="/summary" xr:uid="{6617F167-467C-4718-B0F8-7422A40D657C}"/>
-    <hyperlink ref="B30" r:id="rId61" location="/summary" xr:uid="{D707AE61-570C-49AE-B9DC-D195F480CC89}"/>
-    <hyperlink ref="B31" r:id="rId62" location="/summary" xr:uid="{7050ECBE-B39D-4188-A1DB-1F6498B19379}"/>
-    <hyperlink ref="B32" r:id="rId63" location="/summary" xr:uid="{F4063A92-6CF9-4519-A8CE-5245FE566D22}"/>
-    <hyperlink ref="E32" r:id="rId64" xr:uid="{BEC528C8-8C37-4AFF-8D8B-8F8D3A240634}"/>
-    <hyperlink ref="E33" r:id="rId65" xr:uid="{7D224445-7408-46E9-88C2-52F1B75BFEAF}"/>
-    <hyperlink ref="E34" r:id="rId66" xr:uid="{39334884-B6DA-4302-B757-40B7BEFC4991}"/>
-    <hyperlink ref="E35" r:id="rId67" xr:uid="{0A2A441D-066B-4178-AD23-8AA09BB30D75}"/>
-    <hyperlink ref="E36" r:id="rId68" xr:uid="{3F6F95ED-3318-4EFC-A987-FEB499202E55}"/>
-    <hyperlink ref="E37" r:id="rId69" xr:uid="{AEA0BFE3-2655-4641-9BA5-B7AEE964290C}"/>
-    <hyperlink ref="E38" r:id="rId70" xr:uid="{471D72C3-718C-4EA8-9884-4F9A9E8380DA}"/>
-    <hyperlink ref="E39" r:id="rId71" xr:uid="{0D432010-5CC9-48E7-975A-868C0D49E444}"/>
-    <hyperlink ref="E40" r:id="rId72" xr:uid="{D7378B5E-D770-4815-B178-8642F285B003}"/>
-    <hyperlink ref="E41" r:id="rId73" xr:uid="{78F89174-3E82-4469-9590-D517139B1874}"/>
-    <hyperlink ref="E42" r:id="rId74" xr:uid="{1BE7C807-93C8-4BA5-8555-C2915E893FD7}"/>
+    <hyperlink ref="E56" r:id="rId56" xr:uid="{983DC9EF-701A-429D-80E1-7BCF0B0AB211}"/>
+    <hyperlink ref="E58" r:id="rId57" xr:uid="{CA6D0EA0-A9E8-4135-8FF7-6D68CDEAA7CD}"/>
+    <hyperlink ref="E31" r:id="rId58" xr:uid="{0CDA4E31-1E14-4458-A0AC-AD565254D257}"/>
+    <hyperlink ref="E33" r:id="rId59" xr:uid="{DF544658-C5B8-453E-A253-D7E24EC78999}"/>
+    <hyperlink ref="B31" r:id="rId60" location="/summary" xr:uid="{6617F167-467C-4718-B0F8-7422A40D657C}"/>
+    <hyperlink ref="B32" r:id="rId61" location="/summary" xr:uid="{D707AE61-570C-49AE-B9DC-D195F480CC89}"/>
+    <hyperlink ref="B33" r:id="rId62" location="/summary" xr:uid="{7050ECBE-B39D-4188-A1DB-1F6498B19379}"/>
+    <hyperlink ref="B34" r:id="rId63" location="/summary" xr:uid="{F4063A92-6CF9-4519-A8CE-5245FE566D22}"/>
+    <hyperlink ref="E34" r:id="rId64" xr:uid="{BEC528C8-8C37-4AFF-8D8B-8F8D3A240634}"/>
+    <hyperlink ref="E35" r:id="rId65" xr:uid="{7D224445-7408-46E9-88C2-52F1B75BFEAF}"/>
+    <hyperlink ref="E36" r:id="rId66" xr:uid="{39334884-B6DA-4302-B757-40B7BEFC4991}"/>
+    <hyperlink ref="E37" r:id="rId67" xr:uid="{0A2A441D-066B-4178-AD23-8AA09BB30D75}"/>
+    <hyperlink ref="E38" r:id="rId68" xr:uid="{3F6F95ED-3318-4EFC-A987-FEB499202E55}"/>
+    <hyperlink ref="E39" r:id="rId69" xr:uid="{AEA0BFE3-2655-4641-9BA5-B7AEE964290C}"/>
+    <hyperlink ref="E40" r:id="rId70" xr:uid="{471D72C3-718C-4EA8-9884-4F9A9E8380DA}"/>
+    <hyperlink ref="E41" r:id="rId71" xr:uid="{0D432010-5CC9-48E7-975A-868C0D49E444}"/>
+    <hyperlink ref="E42" r:id="rId72" xr:uid="{D7378B5E-D770-4815-B178-8642F285B003}"/>
+    <hyperlink ref="E43" r:id="rId73" xr:uid="{78F89174-3E82-4469-9590-D517139B1874}"/>
+    <hyperlink ref="E44" r:id="rId74" xr:uid="{1BE7C807-93C8-4BA5-8555-C2915E893FD7}"/>
     <hyperlink ref="B13" r:id="rId75" xr:uid="{7EC06670-BCC6-4C28-8990-16D6ED8D1B75}"/>
-    <hyperlink ref="B43" r:id="rId76" xr:uid="{FAE396B9-6111-43D9-AD97-A83A04299C85}"/>
+    <hyperlink ref="B45" r:id="rId76" xr:uid="{FAE396B9-6111-43D9-AD97-A83A04299C85}"/>
     <hyperlink ref="B14" r:id="rId77" xr:uid="{15216A1B-A2C9-49F0-AC6D-689D9B21244A}"/>
     <hyperlink ref="B16" r:id="rId78" xr:uid="{CF4AF49A-0AC7-4B2E-B50E-A7C581697FD0}"/>
     <hyperlink ref="B17" r:id="rId79" xr:uid="{E6653F73-E021-4393-A2D2-29A5B1C99900}"/>
     <hyperlink ref="B18" r:id="rId80" xr:uid="{F6AC3892-79FB-4721-BB15-FEA70165FAA2}"/>
-    <hyperlink ref="B53" r:id="rId81" xr:uid="{7BE9EA28-27E4-467C-8A7D-B08206A8C247}"/>
-    <hyperlink ref="B55" r:id="rId82" xr:uid="{FCFA5DBC-E4A3-42D2-B584-E1B3C050FA12}"/>
-    <hyperlink ref="B33" r:id="rId83" location="/summary" xr:uid="{BD5570CD-2974-47D3-BECD-FBF1A0103586}"/>
-    <hyperlink ref="B35" r:id="rId84" location="/summary" xr:uid="{A04BAB6F-1883-444C-A660-93173657731B}"/>
-    <hyperlink ref="B36" r:id="rId85" location="/summary" xr:uid="{AFDD9191-F1EA-4D82-B791-F8D71B79299A}"/>
-    <hyperlink ref="B37" r:id="rId86" location="/summary" xr:uid="{57774DD1-A02B-4AE1-9973-904AB3BE5B36}"/>
-    <hyperlink ref="B38" r:id="rId87" location="/summary" xr:uid="{A903A446-66CD-4C34-AC30-CCCF3C6C296C}"/>
-    <hyperlink ref="B39" r:id="rId88" location="/summary" xr:uid="{36DB8854-B664-4B45-86B1-71A127F221B0}"/>
-    <hyperlink ref="B40" r:id="rId89" location="/summary" xr:uid="{16694492-06E8-45D8-8D1B-B8A3DF4AC9D5}"/>
-    <hyperlink ref="B41" r:id="rId90" location="/summary" xr:uid="{9854F6E8-3E5F-4518-8944-1A4E66D48382}"/>
-    <hyperlink ref="B42" r:id="rId91" location="/summary" xr:uid="{883A199B-7D7C-4FFD-940B-86C5AC4651EF}"/>
+    <hyperlink ref="B56" r:id="rId81" xr:uid="{7BE9EA28-27E4-467C-8A7D-B08206A8C247}"/>
+    <hyperlink ref="B58" r:id="rId82" xr:uid="{FCFA5DBC-E4A3-42D2-B584-E1B3C050FA12}"/>
+    <hyperlink ref="B35" r:id="rId83" location="/summary" xr:uid="{BD5570CD-2974-47D3-BECD-FBF1A0103586}"/>
+    <hyperlink ref="B37" r:id="rId84" location="/summary" xr:uid="{A04BAB6F-1883-444C-A660-93173657731B}"/>
+    <hyperlink ref="B38" r:id="rId85" location="/summary" xr:uid="{AFDD9191-F1EA-4D82-B791-F8D71B79299A}"/>
+    <hyperlink ref="B39" r:id="rId86" location="/summary" xr:uid="{57774DD1-A02B-4AE1-9973-904AB3BE5B36}"/>
+    <hyperlink ref="B40" r:id="rId87" location="/summary" xr:uid="{A903A446-66CD-4C34-AC30-CCCF3C6C296C}"/>
+    <hyperlink ref="B41" r:id="rId88" location="/summary" xr:uid="{36DB8854-B664-4B45-86B1-71A127F221B0}"/>
+    <hyperlink ref="B42" r:id="rId89" location="/summary" xr:uid="{16694492-06E8-45D8-8D1B-B8A3DF4AC9D5}"/>
+    <hyperlink ref="B43" r:id="rId90" location="/summary" xr:uid="{9854F6E8-3E5F-4518-8944-1A4E66D48382}"/>
+    <hyperlink ref="B44" r:id="rId91" location="/summary" xr:uid="{883A199B-7D7C-4FFD-940B-86C5AC4651EF}"/>
     <hyperlink ref="E22" r:id="rId92" xr:uid="{5D61A60F-EF84-46C4-818E-92709384E491}"/>
     <hyperlink ref="E25" r:id="rId93" xr:uid="{B8F94E19-DD69-45F7-8CDC-C62BF5BB5A59}"/>
     <hyperlink ref="E27" r:id="rId94" xr:uid="{749551B2-B6C1-4DC8-977F-D0A40E9FB7CB}"/>
     <hyperlink ref="E28" r:id="rId95" xr:uid="{DB97BB73-2C5C-4BB7-AAD1-9F3E73AEF9FA}"/>
-    <hyperlink ref="E44" r:id="rId96" xr:uid="{7F0954D5-9E77-46DF-8A79-7B7D5CDD9561}"/>
+    <hyperlink ref="E46" r:id="rId96" xr:uid="{7F0954D5-9E77-46DF-8A79-7B7D5CDD9561}"/>
     <hyperlink ref="B4" r:id="rId97" xr:uid="{52B7C2FF-613F-441D-B747-455011D88B94}"/>
     <hyperlink ref="M4" r:id="rId98" xr:uid="{25F22962-E187-47E7-8740-E5480B5E0924}"/>
     <hyperlink ref="M5" r:id="rId99" display="https://open.coki.ac/data/" xr:uid="{DB2ED5D1-682A-4FEC-8903-1DDA7A54D005}"/>
     <hyperlink ref="M2" r:id="rId100" xr:uid="{BAC31D3C-8E3A-4527-A22B-4B4925B7E268}"/>
     <hyperlink ref="M3" r:id="rId101" xr:uid="{1590F783-A4BA-42E1-85A5-DD3C31BC85F1}"/>
-    <hyperlink ref="M50" r:id="rId102" display="https://doi.org/10.5281/zenodo.14627194" xr:uid="{7505D7BB-66C2-4946-842B-C435F7CBDBBA}"/>
+    <hyperlink ref="M52" r:id="rId102" display="https://doi.org/10.5281/zenodo.14627194" xr:uid="{7505D7BB-66C2-4946-842B-C435F7CBDBBA}"/>
+    <hyperlink ref="B55" r:id="rId103" xr:uid="{1C43044B-9080-4167-A7D9-997EC0FFC79E}"/>
+    <hyperlink ref="E55" r:id="rId104" xr:uid="{EA10523E-0AE4-4617-A677-8EFF38033C92}"/>
+    <hyperlink ref="B30" r:id="rId105" xr:uid="{686ADC90-E960-4F15-968A-1B3CF6560964}"/>
+    <hyperlink ref="B29" r:id="rId106" xr:uid="{8F493C13-3C3A-4E8A-B0B6-3282B660B08B}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.39409448818897608" bottom="0.39409448818897608" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId103"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId107"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/files/Dashboards_Website.xlsx
+++ b/files/Dashboards_Website.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jschneid\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B951F4A5-9359-43D0-9B8C-07A428ED8E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62570753-21AF-4C87-8EFF-29BCAC1C54F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="11856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -500,9 +500,6 @@
     <t>publications, data, software, infrastructure, other</t>
   </si>
   <si>
-    <t>publications, infrastructures, other</t>
-  </si>
-  <si>
     <t>restricted</t>
   </si>
   <si>
@@ -1036,6 +1033,9 @@
   </si>
   <si>
     <t>GRC</t>
+  </si>
+  <si>
+    <t>publications, infrastructure, other</t>
   </si>
 </sst>
 </file>
@@ -1466,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1478,7 +1478,7 @@
     <col min="4" max="4" width="49.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="20.796875" style="2" customWidth="1"/>
     <col min="6" max="8" width="11.19921875" style="2"/>
-    <col min="9" max="9" width="19" style="2" customWidth="1"/>
+    <col min="9" max="9" width="27.59765625" style="2" customWidth="1"/>
     <col min="10" max="10" width="17.796875" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.59765625" style="2" customWidth="1"/>
     <col min="12" max="12" width="13.3984375" style="2" customWidth="1"/>
@@ -1522,13 +1522,13 @@
         <v>150</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1539,7 +1539,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>85</v>
@@ -1560,16 +1560,16 @@
         <v>56</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>148</v>
@@ -1583,7 +1583,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>87</v>
@@ -1607,13 +1607,13 @@
         <v>148</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>148</v>
@@ -1621,13 +1621,13 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>251</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>87</v>
@@ -1648,16 +1648,16 @@
         <v>56</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>148</v>
@@ -1671,7 +1671,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>124</v>
@@ -1692,16 +1692,16 @@
         <v>56</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>148</v>
@@ -1715,7 +1715,7 @@
         <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>91</v>
@@ -1736,16 +1736,16 @@
         <v>56</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>148</v>
@@ -1759,7 +1759,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>92</v>
@@ -1780,16 +1780,16 @@
         <v>152</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>148</v>
@@ -1797,13 +1797,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>135</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>134</v>
@@ -1824,16 +1824,16 @@
         <v>56</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>148</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>148</v>
@@ -1847,10 +1847,10 @@
         <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>148</v>
@@ -1891,7 +1891,7 @@
         <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>79</v>
@@ -1912,7 +1912,7 @@
         <v>56</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>148</v>
@@ -1921,7 +1921,7 @@
         <v>148</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>148</v>
@@ -1935,7 +1935,7 @@
         <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>80</v>
@@ -1959,13 +1959,13 @@
         <v>148</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>148</v>
@@ -1979,7 +1979,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>94</v>
@@ -2000,16 +2000,16 @@
         <v>130</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>148</v>
@@ -2017,16 +2017,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>148</v>
@@ -2044,33 +2044,33 @@
         <v>154</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>148</v>
@@ -2088,19 +2088,19 @@
         <v>154</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2111,7 +2111,7 @@
         <v>64</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>12</v>
@@ -2132,36 +2132,36 @@
         <v>153</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>52</v>
@@ -2176,33 +2176,33 @@
         <v>154</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>173</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>148</v>
@@ -2217,39 +2217,39 @@
         <v>2</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>52</v>
@@ -2264,19 +2264,19 @@
         <v>138</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2287,7 +2287,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>96</v>
@@ -2308,16 +2308,16 @@
         <v>153</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>148</v>
@@ -2331,7 +2331,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>98</v>
@@ -2355,13 +2355,13 @@
         <v>148</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>148</v>
@@ -2375,7 +2375,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>100</v>
@@ -2393,19 +2393,19 @@
         <v>44</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>155</v>
+        <v>332</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>148</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>148</v>
@@ -2419,7 +2419,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D22" t="s">
         <v>102</v>
@@ -2446,10 +2446,10 @@
         <v>148</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>148</v>
@@ -2463,7 +2463,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>106</v>
@@ -2481,7 +2481,7 @@
         <v>47</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>148</v>
@@ -2493,7 +2493,7 @@
         <v>148</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>148</v>
@@ -2507,7 +2507,7 @@
         <v>139</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>125</v>
@@ -2551,7 +2551,7 @@
         <v>68</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>83</v>
@@ -2595,10 +2595,10 @@
         <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>129</v>
@@ -2616,16 +2616,16 @@
         <v>56</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>148</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>148</v>
@@ -2639,7 +2639,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>109</v>
@@ -2669,7 +2669,7 @@
         <v>132</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>148</v>
@@ -2683,7 +2683,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>111</v>
@@ -2704,16 +2704,16 @@
         <v>56</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>148</v>
       </c>
       <c r="L28" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>148</v>
@@ -2721,16 +2721,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="C29" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>148</v>
@@ -2742,7 +2742,7 @@
         <v>15</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>56</v>
@@ -2765,16 +2765,16 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>327</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>148</v>
@@ -2809,19 +2809,19 @@
     </row>
     <row r="31" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D31" s="8" t="s">
+      <c r="E31" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>53</v>
@@ -2830,7 +2830,7 @@
         <v>15</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>138</v>
@@ -2853,16 +2853,16 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>148</v>
@@ -2874,7 +2874,7 @@
         <v>15</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>138</v>
@@ -2897,19 +2897,19 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>203</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>53</v>
@@ -2918,7 +2918,7 @@
         <v>15</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>138</v>
@@ -2941,19 +2941,19 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>53</v>
@@ -2962,7 +2962,7 @@
         <v>15</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>138</v>
@@ -2985,19 +2985,19 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>53</v>
@@ -3006,7 +3006,7 @@
         <v>15</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>138</v>
@@ -3029,19 +3029,19 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>53</v>
@@ -3050,7 +3050,7 @@
         <v>15</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>138</v>
@@ -3073,19 +3073,19 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>53</v>
@@ -3094,7 +3094,7 @@
         <v>15</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>138</v>
@@ -3117,19 +3117,19 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>223</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>53</v>
@@ -3138,7 +3138,7 @@
         <v>15</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>138</v>
@@ -3161,19 +3161,19 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>226</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>53</v>
@@ -3182,7 +3182,7 @@
         <v>15</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>138</v>
@@ -3205,19 +3205,19 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>53</v>
@@ -3226,7 +3226,7 @@
         <v>15</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>138</v>
@@ -3249,19 +3249,19 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>53</v>
@@ -3270,7 +3270,7 @@
         <v>15</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>138</v>
@@ -3293,19 +3293,19 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>53</v>
@@ -3314,7 +3314,7 @@
         <v>15</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>138</v>
@@ -3337,19 +3337,19 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>53</v>
@@ -3358,7 +3358,7 @@
         <v>15</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>138</v>
@@ -3381,19 +3381,19 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="C44" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>248</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>53</v>
@@ -3402,7 +3402,7 @@
         <v>15</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>138</v>
@@ -3425,19 +3425,19 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>53</v>
@@ -3452,19 +3452,19 @@
         <v>56</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -3475,7 +3475,7 @@
         <v>66</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>104</v>
@@ -3496,19 +3496,19 @@
         <v>56</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -3519,13 +3519,13 @@
         <v>24</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>53</v>
@@ -3540,19 +3540,19 @@
         <v>153</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -3563,7 +3563,7 @@
         <v>30</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>126</v>
@@ -3584,16 +3584,16 @@
         <v>56</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>148</v>
@@ -3607,7 +3607,7 @@
         <v>31</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>116</v>
@@ -3634,10 +3634,10 @@
         <v>148</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>148</v>
@@ -3651,7 +3651,7 @@
         <v>32</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>127</v>
@@ -3672,16 +3672,16 @@
         <v>154</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>148</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>148</v>
@@ -3695,7 +3695,7 @@
         <v>33</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>119</v>
@@ -3722,10 +3722,10 @@
         <v>148</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>148</v>
@@ -3739,7 +3739,7 @@
         <v>34</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>128</v>
@@ -3760,16 +3760,16 @@
         <v>56</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>148</v>
@@ -3783,7 +3783,7 @@
         <v>35</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>122</v>
@@ -3813,7 +3813,7 @@
         <v>132</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>148</v>
@@ -3827,7 +3827,7 @@
         <v>39</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>137</v>
@@ -3848,16 +3848,16 @@
         <v>138</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>148</v>
@@ -3865,19 +3865,19 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="C55" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>323</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>52</v>
@@ -3901,7 +3901,7 @@
         <v>132</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>148</v>
@@ -3909,19 +3909,19 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>52</v>
@@ -3930,25 +3930,25 @@
         <v>29</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>153</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -3959,7 +3959,7 @@
         <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>81</v>
@@ -3980,36 +3980,36 @@
         <v>153</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D58" s="2" t="s">
+      <c r="E58" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>52</v>
@@ -4018,25 +4018,25 @@
         <v>29</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>153</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>132</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">

--- a/files/Dashboards_Website.xlsx
+++ b/files/Dashboards_Website.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jschneid\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBAF2DC-782A-472A-AFD1-C5A0B77FAF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B21323-240E-4F9A-BE4F-B9C15359F7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="3144" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -969,9 +969,6 @@
     <t>https://doi.org/10.5281/zenodo.14627194, Lizenz: https://github.com/quest-bih/open-earthsciences</t>
   </si>
   <si>
-    <t>1897–2024</t>
-  </si>
-  <si>
     <t>sources: https://oamonitor.obvsg.at/faq, license: https://github.com/mroes/OpenAccessDataProcessor?tab=readme-ov-file</t>
   </si>
   <si>
@@ -1030,6 +1027,9 @@
   </si>
   <si>
     <t>2019–2025</t>
+  </si>
+  <si>
+    <t>1897–2026</t>
   </si>
 </sst>
 </file>
@@ -1460,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2017,7 +2017,7 @@
         <v>159</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>160</v>
@@ -2061,7 +2061,7 @@
         <v>166</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>167</v>
@@ -2105,7 +2105,7 @@
         <v>64</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>12</v>
@@ -2193,7 +2193,7 @@
         <v>171</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>173</v>
@@ -2237,7 +2237,7 @@
         <v>177</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>178</v>
@@ -2281,7 +2281,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>95</v>
@@ -2387,7 +2387,7 @@
         <v>44</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>147</v>
@@ -2545,7 +2545,7 @@
         <v>68</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>82</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>54</v>
@@ -2619,7 +2619,7 @@
         <v>290</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>147</v>
@@ -2677,7 +2677,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>110</v>
@@ -2715,16 +2715,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="C29" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>147</v>
@@ -2736,7 +2736,7 @@
         <v>15</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>56</v>
@@ -2759,16 +2759,16 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>318</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>257</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>147</v>
@@ -3425,7 +3425,7 @@
         <v>162</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>163</v>
@@ -3469,7 +3469,7 @@
         <v>66</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>103</v>
@@ -3513,7 +3513,7 @@
         <v>24</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>306</v>
@@ -3557,7 +3557,7 @@
         <v>30</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>125</v>
@@ -3601,7 +3601,7 @@
         <v>31</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>115</v>
@@ -3859,19 +3859,19 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>312</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>313</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>282</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>315</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>52</v>
@@ -3895,7 +3895,7 @@
         <v>131</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>147</v>
@@ -3909,7 +3909,7 @@
         <v>180</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>182</v>
@@ -3953,7 +3953,7 @@
         <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>80</v>
@@ -3997,7 +3997,7 @@
         <v>247</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>186</v>

--- a/files/Dashboards_Website.xlsx
+++ b/files/Dashboards_Website.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jschneid\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B21323-240E-4F9A-BE4F-B9C15359F7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8262E295-56CE-48AD-AC88-E710C10967FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1308" yWindow="4308" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="337">
   <si>
     <t>NAME</t>
   </si>
@@ -1030,6 +1030,24 @@
   </si>
   <si>
     <t>1897–2026</t>
+  </si>
+  <si>
+    <t>Europe PMC Funders's Dashboard</t>
+  </si>
+  <si>
+    <t>https://europepmc.org/funder-dashboard?funderName=Academy%20of%20Medical%20Sciences&amp;tabName=Open%20Access</t>
+  </si>
+  <si>
+    <t>1913–2025</t>
+  </si>
+  <si>
+    <t>Europe PMC</t>
+  </si>
+  <si>
+    <t>publications, data, other</t>
+  </si>
+  <si>
+    <t>data availability: https://blog.europepmc.org/2020/02/europe-pmc-funders-dashboard.html</t>
   </si>
 </sst>
 </file>
@@ -1458,10 +1476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N84"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="E28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2275,43 +2293,43 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>14</v>
+        <v>331</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>96</v>
+        <v>334</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>152</v>
+        <v>335</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>267</v>
+        <v>147</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>277</v>
+        <v>147</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>131</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>278</v>
+        <v>336</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>147</v>
@@ -2319,43 +2337,43 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>97</v>
+        <v>326</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>147</v>
+        <v>267</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>290</v>
+        <v>131</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>147</v>
@@ -2363,43 +2381,43 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>99</v>
+        <v>280</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>323</v>
+        <v>56</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>147</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>131</v>
+        <v>290</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>147</v>
@@ -2407,19 +2425,19 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>102</v>
+        <v>305</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>53</v>
@@ -2428,22 +2446,22 @@
         <v>15</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>56</v>
+        <v>323</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>147</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>147</v>
+        <v>265</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>290</v>
+        <v>131</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>147</v>
@@ -2451,19 +2469,19 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>106</v>
+        <v>262</v>
+      </c>
+      <c r="D23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>53</v>
@@ -2472,10 +2490,10 @@
         <v>15</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>147</v>
@@ -2484,10 +2502,10 @@
         <v>147</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>147</v>
+        <v>290</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>147</v>
@@ -2495,19 +2513,19 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>138</v>
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>53</v>
@@ -2519,7 +2537,7 @@
         <v>47</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>147</v>
@@ -2531,7 +2549,7 @@
         <v>147</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>147</v>
+        <v>288</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>147</v>
@@ -2539,19 +2557,19 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>327</v>
+        <v>260</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>53</v>
@@ -2560,10 +2578,10 @@
         <v>15</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>147</v>
@@ -2583,19 +2601,19 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>328</v>
+        <v>69</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>128</v>
+        <v>82</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>53</v>
@@ -2604,22 +2622,22 @@
         <v>15</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>267</v>
+        <v>147</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>147</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>290</v>
+        <v>147</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>310</v>
+        <v>147</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>147</v>
@@ -2627,43 +2645,43 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>328</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>109</v>
+        <v>303</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>56</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>147</v>
+        <v>267</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>147</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>131</v>
+        <v>290</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>147</v>
@@ -2671,43 +2689,43 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>56</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>147</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>290</v>
+        <v>131</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>147</v>
@@ -2715,43 +2733,43 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>319</v>
+        <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>320</v>
+        <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>147</v>
+        <v>110</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>322</v>
+        <v>50</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>56</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>147</v>
+        <v>265</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>147</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>147</v>
+        <v>290</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>147</v>
+        <v>291</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>147</v>
@@ -2759,16 +2777,16 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>257</v>
+        <v>329</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>147</v>
@@ -2780,7 +2798,7 @@
         <v>15</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>48</v>
+        <v>322</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>56</v>
@@ -2801,88 +2819,88 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D32" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H32" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I32" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="N31" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="M32" s="2" t="s">
+      <c r="J32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M32" s="7" t="s">
         <v>147</v>
       </c>
       <c r="N32" s="7" t="s">
@@ -2891,19 +2909,19 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>201</v>
+        <v>197</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>53</v>
@@ -2912,9 +2930,9 @@
         <v>15</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I33" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>137</v>
       </c>
       <c r="J33" s="2" t="s">
@@ -2935,19 +2953,19 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>53</v>
@@ -2956,7 +2974,7 @@
         <v>15</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>137</v>
@@ -2979,19 +2997,19 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>53</v>
@@ -3023,19 +3041,19 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>214</v>
+        <v>207</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>53</v>
@@ -3067,19 +3085,19 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>53</v>
@@ -3111,19 +3129,19 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>53</v>
@@ -3155,19 +3173,19 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>53</v>
@@ -3199,19 +3217,19 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>53</v>
@@ -3243,19 +3261,19 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>53</v>
@@ -3287,19 +3305,19 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>286</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>53</v>
@@ -3331,19 +3349,19 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>286</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>53</v>
@@ -3375,19 +3393,19 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>53</v>
@@ -3419,19 +3437,19 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>162</v>
+        <v>244</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>324</v>
+        <v>262</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>164</v>
+        <v>246</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>53</v>
@@ -3440,42 +3458,42 @@
         <v>15</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>56</v>
+        <v>195</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>254</v>
+        <v>147</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>104</v>
+      <c r="D46" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>53</v>
@@ -3484,7 +3502,7 @@
         <v>15</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>56</v>
@@ -3507,19 +3525,19 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>307</v>
+      <c r="D47" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>53</v>
@@ -3528,10 +3546,10 @@
         <v>15</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>265</v>
@@ -3551,63 +3569,63 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>30</v>
+        <v>67</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>113</v>
+        <v>306</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>265</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>131</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>147</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>52</v>
@@ -3616,22 +3634,22 @@
         <v>29</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>56</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>147</v>
+        <v>265</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>147</v>
+        <v>264</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>290</v>
+        <v>131</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>147</v>
@@ -3639,19 +3657,19 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>52</v>
@@ -3660,13 +3678,13 @@
         <v>29</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>267</v>
+        <v>147</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>147</v>
@@ -3675,7 +3693,7 @@
         <v>290</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>147</v>
@@ -3683,19 +3701,19 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>52</v>
@@ -3707,10 +3725,10 @@
         <v>43</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>147</v>
+        <v>267</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>147</v>
@@ -3719,7 +3737,7 @@
         <v>290</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>147</v>
@@ -3727,19 +3745,19 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>52</v>
@@ -3754,16 +3772,16 @@
         <v>56</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>267</v>
+        <v>147</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M52" s="5" t="s">
-        <v>309</v>
+        <v>290</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>147</v>
@@ -3771,19 +3789,19 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>52</v>
@@ -3798,16 +3816,16 @@
         <v>56</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>147</v>
+        <v>267</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>147</v>
+        <v>265</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M53" s="2" t="s">
-        <v>295</v>
+      <c r="M53" s="5" t="s">
+        <v>309</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>147</v>
@@ -3815,19 +3833,19 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>39</v>
+        <v>76</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>52</v>
@@ -3839,19 +3857,19 @@
         <v>43</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>268</v>
+        <v>147</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>131</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>147</v>
@@ -3859,19 +3877,19 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>311</v>
+        <v>38</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>312</v>
+        <v>39</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>313</v>
+        <v>136</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>314</v>
+        <v>135</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>52</v>
@@ -3880,22 +3898,22 @@
         <v>29</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>147</v>
+        <v>268</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>147</v>
+        <v>265</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>131</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>147</v>
@@ -3903,19 +3921,19 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>181</v>
+        <v>311</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>180</v>
+        <v>312</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>182</v>
+        <v>313</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>183</v>
+        <v>314</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>52</v>
@@ -3924,42 +3942,42 @@
         <v>29</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>184</v>
+        <v>49</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>131</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>254</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>80</v>
+      <c r="D57" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>52</v>
@@ -3968,7 +3986,7 @@
         <v>29</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>152</v>
@@ -3991,19 +4009,19 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>247</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>186</v>
+      <c r="D58" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>52</v>
@@ -4012,7 +4030,7 @@
         <v>29</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>188</v>
+        <v>43</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>152</v>
@@ -4033,31 +4051,72 @@
         <v>254</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="5"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D65" s="4"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="3"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D66" s="4"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="5"/>
+      <c r="B70" s="3"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
+      <c r="B72" s="5"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="3"/>
+      <c r="A73" s="3"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
@@ -4068,11 +4127,11 @@
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
+      <c r="A81" s="5"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
@@ -4082,6 +4141,9 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4093,105 +4155,105 @@
     <hyperlink ref="B11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="B12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="B15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B19" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B20" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B21" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B22" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B46" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B23" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B25" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B57" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B48" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B49" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B50" r:id="rId18" location="tabStart" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B51" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B52" r:id="rId20" location="tabOA" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B53" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B22" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B23" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B47" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B24" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B26" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B58" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B49" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B50" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B51" r:id="rId18" location="tabStart" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B52" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B53" r:id="rId20" location="tabOA" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B54" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="B10" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="B9" r:id="rId23" xr:uid="{2E978BF9-FAC6-4434-8A61-095820344F8E}"/>
     <hyperlink ref="B6" r:id="rId24" xr:uid="{7DE1F29E-C0EB-4D5D-AE2E-454D5BEF365B}"/>
-    <hyperlink ref="B28" r:id="rId25" xr:uid="{3B9FAA60-C30C-46CE-96E3-EE5C81E2F539}"/>
-    <hyperlink ref="B24" r:id="rId26" xr:uid="{4D50D363-EC52-4C94-B2F7-1696191B5D4E}"/>
-    <hyperlink ref="B47" r:id="rId27" xr:uid="{B9C038C6-1B26-46B2-9989-388377D3A1E4}"/>
-    <hyperlink ref="B27" r:id="rId28" xr:uid="{F77EA1F6-9ABC-4FEF-B834-6397EA503F9C}"/>
-    <hyperlink ref="B26" r:id="rId29" xr:uid="{E7B74F71-7B2B-4907-B7F2-A8ADE38CD488}"/>
+    <hyperlink ref="B29" r:id="rId25" xr:uid="{3B9FAA60-C30C-46CE-96E3-EE5C81E2F539}"/>
+    <hyperlink ref="B25" r:id="rId26" xr:uid="{4D50D363-EC52-4C94-B2F7-1696191B5D4E}"/>
+    <hyperlink ref="B48" r:id="rId27" xr:uid="{B9C038C6-1B26-46B2-9989-388377D3A1E4}"/>
+    <hyperlink ref="B28" r:id="rId28" xr:uid="{F77EA1F6-9ABC-4FEF-B834-6397EA503F9C}"/>
+    <hyperlink ref="B27" r:id="rId29" xr:uid="{E7B74F71-7B2B-4907-B7F2-A8ADE38CD488}"/>
     <hyperlink ref="E3" r:id="rId30" xr:uid="{3ADB5C4A-E316-42AC-AEB5-5C03EBAA513E}"/>
-    <hyperlink ref="E57" r:id="rId31" xr:uid="{9601B733-7355-4C0B-9C0E-F6BCC4EA8DE9}"/>
+    <hyperlink ref="E58" r:id="rId31" xr:uid="{9601B733-7355-4C0B-9C0E-F6BCC4EA8DE9}"/>
     <hyperlink ref="E12" r:id="rId32" xr:uid="{D541F439-354D-4A23-AC17-3748FA08F9A2}"/>
-    <hyperlink ref="E48" r:id="rId33" xr:uid="{6232C42B-B80A-40CE-858B-59ED7C0E2E04}"/>
-    <hyperlink ref="E49" r:id="rId34" xr:uid="{58801C6C-6A1C-4AEC-BC83-814992A0795E}"/>
-    <hyperlink ref="E50" r:id="rId35" display="https://ror.org/001w7jn25" xr:uid="{F9BD791C-817E-4AD2-9AC8-EE07210D4210}"/>
-    <hyperlink ref="E51" r:id="rId36" xr:uid="{A8AE3B95-8296-4F85-B144-496311EE9374}"/>
-    <hyperlink ref="E52" r:id="rId37" display="https://ror.org/046ak2485" xr:uid="{C29AA756-D996-4217-891B-97B7A3C30910}"/>
-    <hyperlink ref="E53" r:id="rId38" xr:uid="{1D2EE263-E95F-46C3-AF25-593CA4061797}"/>
+    <hyperlink ref="E49" r:id="rId33" xr:uid="{6232C42B-B80A-40CE-858B-59ED7C0E2E04}"/>
+    <hyperlink ref="E50" r:id="rId34" xr:uid="{58801C6C-6A1C-4AEC-BC83-814992A0795E}"/>
+    <hyperlink ref="E51" r:id="rId35" display="https://ror.org/001w7jn25" xr:uid="{F9BD791C-817E-4AD2-9AC8-EE07210D4210}"/>
+    <hyperlink ref="E52" r:id="rId36" xr:uid="{A8AE3B95-8296-4F85-B144-496311EE9374}"/>
+    <hyperlink ref="E53" r:id="rId37" display="https://ror.org/046ak2485" xr:uid="{C29AA756-D996-4217-891B-97B7A3C30910}"/>
+    <hyperlink ref="E54" r:id="rId38" xr:uid="{1D2EE263-E95F-46C3-AF25-593CA4061797}"/>
     <hyperlink ref="E2" r:id="rId39" xr:uid="{7CDDC8F0-EDA1-45AE-808E-11EDE8ED16C8}"/>
     <hyperlink ref="E5" r:id="rId40" xr:uid="{3A0FC5E2-BB0B-491F-A2BB-C21F3A80CBE7}"/>
     <hyperlink ref="E6" r:id="rId41" xr:uid="{2BC3348D-A624-44A6-8799-21F5E041567A}"/>
     <hyperlink ref="E7" r:id="rId42" xr:uid="{49E8E0D9-383D-42D7-9AF6-3E2FD4C3D862}"/>
     <hyperlink ref="E15" r:id="rId43" xr:uid="{00F61FBB-F72F-4352-9284-450ECA9D60FD}"/>
-    <hyperlink ref="E19" r:id="rId44" xr:uid="{03D2F215-D7E2-4E90-95E5-D96F3C7FE7B0}"/>
-    <hyperlink ref="E20" r:id="rId45" xr:uid="{13E8F539-3D8B-4DB6-9E71-42470F81BB7E}"/>
-    <hyperlink ref="E21" r:id="rId46" xr:uid="{6F1A044C-43C2-41DC-AE79-F807D75A0BE4}"/>
-    <hyperlink ref="E23" r:id="rId47" xr:uid="{0548E347-4912-43D7-A622-2508B2333351}"/>
-    <hyperlink ref="E26" r:id="rId48" xr:uid="{A8AAA73B-8AA0-4286-8546-B00725169F40}"/>
+    <hyperlink ref="E20" r:id="rId44" xr:uid="{03D2F215-D7E2-4E90-95E5-D96F3C7FE7B0}"/>
+    <hyperlink ref="E21" r:id="rId45" xr:uid="{13E8F539-3D8B-4DB6-9E71-42470F81BB7E}"/>
+    <hyperlink ref="E22" r:id="rId46" xr:uid="{6F1A044C-43C2-41DC-AE79-F807D75A0BE4}"/>
+    <hyperlink ref="E24" r:id="rId47" xr:uid="{0548E347-4912-43D7-A622-2508B2333351}"/>
+    <hyperlink ref="E27" r:id="rId48" xr:uid="{A8AAA73B-8AA0-4286-8546-B00725169F40}"/>
     <hyperlink ref="E8" r:id="rId49" xr:uid="{AA26F3F5-37F5-4224-8CD6-D258C4FAA10D}"/>
-    <hyperlink ref="E54" r:id="rId50" xr:uid="{33BA3911-157F-4B5F-B224-926A665413ED}"/>
+    <hyperlink ref="E55" r:id="rId50" xr:uid="{33BA3911-157F-4B5F-B224-926A665413ED}"/>
     <hyperlink ref="B8" r:id="rId51" xr:uid="{09FCB9D2-25B2-4442-A69D-77E3413519EF}"/>
-    <hyperlink ref="B54" r:id="rId52" xr:uid="{4B739AEA-7F3F-45D6-B075-72568EA43671}"/>
-    <hyperlink ref="E45" r:id="rId53" xr:uid="{11697F8A-9521-43AE-95AC-F7C8DC927828}"/>
+    <hyperlink ref="B55" r:id="rId52" xr:uid="{4B739AEA-7F3F-45D6-B075-72568EA43671}"/>
+    <hyperlink ref="E46" r:id="rId53" xr:uid="{11697F8A-9521-43AE-95AC-F7C8DC927828}"/>
     <hyperlink ref="E16" r:id="rId54" xr:uid="{00FFFA05-4F61-43C4-B140-6BB688AA3AB5}"/>
     <hyperlink ref="E18" r:id="rId55" xr:uid="{BCDD8F9A-1A73-459B-BD95-87BA9F6737EA}"/>
-    <hyperlink ref="E56" r:id="rId56" xr:uid="{983DC9EF-701A-429D-80E1-7BCF0B0AB211}"/>
-    <hyperlink ref="E58" r:id="rId57" xr:uid="{CA6D0EA0-A9E8-4135-8FF7-6D68CDEAA7CD}"/>
-    <hyperlink ref="E31" r:id="rId58" xr:uid="{0CDA4E31-1E14-4458-A0AC-AD565254D257}"/>
-    <hyperlink ref="E33" r:id="rId59" xr:uid="{DF544658-C5B8-453E-A253-D7E24EC78999}"/>
-    <hyperlink ref="B31" r:id="rId60" location="/summary" xr:uid="{6617F167-467C-4718-B0F8-7422A40D657C}"/>
-    <hyperlink ref="B32" r:id="rId61" location="/summary" xr:uid="{D707AE61-570C-49AE-B9DC-D195F480CC89}"/>
-    <hyperlink ref="B33" r:id="rId62" location="/summary" xr:uid="{7050ECBE-B39D-4188-A1DB-1F6498B19379}"/>
-    <hyperlink ref="B34" r:id="rId63" location="/summary" xr:uid="{F4063A92-6CF9-4519-A8CE-5245FE566D22}"/>
-    <hyperlink ref="E34" r:id="rId64" xr:uid="{BEC528C8-8C37-4AFF-8D8B-8F8D3A240634}"/>
-    <hyperlink ref="E35" r:id="rId65" xr:uid="{7D224445-7408-46E9-88C2-52F1B75BFEAF}"/>
-    <hyperlink ref="E36" r:id="rId66" xr:uid="{39334884-B6DA-4302-B757-40B7BEFC4991}"/>
-    <hyperlink ref="E37" r:id="rId67" xr:uid="{0A2A441D-066B-4178-AD23-8AA09BB30D75}"/>
-    <hyperlink ref="E38" r:id="rId68" xr:uid="{3F6F95ED-3318-4EFC-A987-FEB499202E55}"/>
-    <hyperlink ref="E39" r:id="rId69" xr:uid="{AEA0BFE3-2655-4641-9BA5-B7AEE964290C}"/>
-    <hyperlink ref="E40" r:id="rId70" xr:uid="{471D72C3-718C-4EA8-9884-4F9A9E8380DA}"/>
-    <hyperlink ref="E41" r:id="rId71" xr:uid="{0D432010-5CC9-48E7-975A-868C0D49E444}"/>
-    <hyperlink ref="E42" r:id="rId72" xr:uid="{D7378B5E-D770-4815-B178-8642F285B003}"/>
-    <hyperlink ref="E43" r:id="rId73" xr:uid="{78F89174-3E82-4469-9590-D517139B1874}"/>
-    <hyperlink ref="E44" r:id="rId74" xr:uid="{1BE7C807-93C8-4BA5-8555-C2915E893FD7}"/>
+    <hyperlink ref="E57" r:id="rId56" xr:uid="{983DC9EF-701A-429D-80E1-7BCF0B0AB211}"/>
+    <hyperlink ref="E59" r:id="rId57" xr:uid="{CA6D0EA0-A9E8-4135-8FF7-6D68CDEAA7CD}"/>
+    <hyperlink ref="E32" r:id="rId58" xr:uid="{0CDA4E31-1E14-4458-A0AC-AD565254D257}"/>
+    <hyperlink ref="E34" r:id="rId59" xr:uid="{DF544658-C5B8-453E-A253-D7E24EC78999}"/>
+    <hyperlink ref="B32" r:id="rId60" location="/summary" xr:uid="{6617F167-467C-4718-B0F8-7422A40D657C}"/>
+    <hyperlink ref="B33" r:id="rId61" location="/summary" xr:uid="{D707AE61-570C-49AE-B9DC-D195F480CC89}"/>
+    <hyperlink ref="B34" r:id="rId62" location="/summary" xr:uid="{7050ECBE-B39D-4188-A1DB-1F6498B19379}"/>
+    <hyperlink ref="B35" r:id="rId63" location="/summary" xr:uid="{F4063A92-6CF9-4519-A8CE-5245FE566D22}"/>
+    <hyperlink ref="E35" r:id="rId64" xr:uid="{BEC528C8-8C37-4AFF-8D8B-8F8D3A240634}"/>
+    <hyperlink ref="E36" r:id="rId65" xr:uid="{7D224445-7408-46E9-88C2-52F1B75BFEAF}"/>
+    <hyperlink ref="E37" r:id="rId66" xr:uid="{39334884-B6DA-4302-B757-40B7BEFC4991}"/>
+    <hyperlink ref="E38" r:id="rId67" xr:uid="{0A2A441D-066B-4178-AD23-8AA09BB30D75}"/>
+    <hyperlink ref="E39" r:id="rId68" xr:uid="{3F6F95ED-3318-4EFC-A987-FEB499202E55}"/>
+    <hyperlink ref="E40" r:id="rId69" xr:uid="{AEA0BFE3-2655-4641-9BA5-B7AEE964290C}"/>
+    <hyperlink ref="E41" r:id="rId70" xr:uid="{471D72C3-718C-4EA8-9884-4F9A9E8380DA}"/>
+    <hyperlink ref="E42" r:id="rId71" xr:uid="{0D432010-5CC9-48E7-975A-868C0D49E444}"/>
+    <hyperlink ref="E43" r:id="rId72" xr:uid="{D7378B5E-D770-4815-B178-8642F285B003}"/>
+    <hyperlink ref="E44" r:id="rId73" xr:uid="{78F89174-3E82-4469-9590-D517139B1874}"/>
+    <hyperlink ref="E45" r:id="rId74" xr:uid="{1BE7C807-93C8-4BA5-8555-C2915E893FD7}"/>
     <hyperlink ref="B13" r:id="rId75" xr:uid="{7EC06670-BCC6-4C28-8990-16D6ED8D1B75}"/>
-    <hyperlink ref="B45" r:id="rId76" xr:uid="{FAE396B9-6111-43D9-AD97-A83A04299C85}"/>
+    <hyperlink ref="B46" r:id="rId76" xr:uid="{FAE396B9-6111-43D9-AD97-A83A04299C85}"/>
     <hyperlink ref="B14" r:id="rId77" xr:uid="{15216A1B-A2C9-49F0-AC6D-689D9B21244A}"/>
     <hyperlink ref="B16" r:id="rId78" xr:uid="{CF4AF49A-0AC7-4B2E-B50E-A7C581697FD0}"/>
     <hyperlink ref="B17" r:id="rId79" xr:uid="{E6653F73-E021-4393-A2D2-29A5B1C99900}"/>
     <hyperlink ref="B18" r:id="rId80" xr:uid="{F6AC3892-79FB-4721-BB15-FEA70165FAA2}"/>
-    <hyperlink ref="B56" r:id="rId81" xr:uid="{7BE9EA28-27E4-467C-8A7D-B08206A8C247}"/>
-    <hyperlink ref="B58" r:id="rId82" xr:uid="{FCFA5DBC-E4A3-42D2-B584-E1B3C050FA12}"/>
-    <hyperlink ref="B35" r:id="rId83" location="/summary" xr:uid="{BD5570CD-2974-47D3-BECD-FBF1A0103586}"/>
-    <hyperlink ref="B37" r:id="rId84" location="/summary" xr:uid="{A04BAB6F-1883-444C-A660-93173657731B}"/>
-    <hyperlink ref="B38" r:id="rId85" location="/summary" xr:uid="{AFDD9191-F1EA-4D82-B791-F8D71B79299A}"/>
-    <hyperlink ref="B39" r:id="rId86" location="/summary" xr:uid="{57774DD1-A02B-4AE1-9973-904AB3BE5B36}"/>
-    <hyperlink ref="B40" r:id="rId87" location="/summary" xr:uid="{A903A446-66CD-4C34-AC30-CCCF3C6C296C}"/>
-    <hyperlink ref="B41" r:id="rId88" location="/summary" xr:uid="{36DB8854-B664-4B45-86B1-71A127F221B0}"/>
-    <hyperlink ref="B42" r:id="rId89" location="/summary" xr:uid="{16694492-06E8-45D8-8D1B-B8A3DF4AC9D5}"/>
-    <hyperlink ref="B43" r:id="rId90" location="/summary" xr:uid="{9854F6E8-3E5F-4518-8944-1A4E66D48382}"/>
-    <hyperlink ref="B44" r:id="rId91" location="/summary" xr:uid="{883A199B-7D7C-4FFD-940B-86C5AC4651EF}"/>
-    <hyperlink ref="E22" r:id="rId92" xr:uid="{5D61A60F-EF84-46C4-818E-92709384E491}"/>
-    <hyperlink ref="E25" r:id="rId93" xr:uid="{B8F94E19-DD69-45F7-8CDC-C62BF5BB5A59}"/>
-    <hyperlink ref="E27" r:id="rId94" xr:uid="{749551B2-B6C1-4DC8-977F-D0A40E9FB7CB}"/>
-    <hyperlink ref="E28" r:id="rId95" xr:uid="{DB97BB73-2C5C-4BB7-AAD1-9F3E73AEF9FA}"/>
-    <hyperlink ref="E46" r:id="rId96" xr:uid="{7F0954D5-9E77-46DF-8A79-7B7D5CDD9561}"/>
+    <hyperlink ref="B57" r:id="rId81" xr:uid="{7BE9EA28-27E4-467C-8A7D-B08206A8C247}"/>
+    <hyperlink ref="B59" r:id="rId82" xr:uid="{FCFA5DBC-E4A3-42D2-B584-E1B3C050FA12}"/>
+    <hyperlink ref="B36" r:id="rId83" location="/summary" xr:uid="{BD5570CD-2974-47D3-BECD-FBF1A0103586}"/>
+    <hyperlink ref="B38" r:id="rId84" location="/summary" xr:uid="{A04BAB6F-1883-444C-A660-93173657731B}"/>
+    <hyperlink ref="B39" r:id="rId85" location="/summary" xr:uid="{AFDD9191-F1EA-4D82-B791-F8D71B79299A}"/>
+    <hyperlink ref="B40" r:id="rId86" location="/summary" xr:uid="{57774DD1-A02B-4AE1-9973-904AB3BE5B36}"/>
+    <hyperlink ref="B41" r:id="rId87" location="/summary" xr:uid="{A903A446-66CD-4C34-AC30-CCCF3C6C296C}"/>
+    <hyperlink ref="B42" r:id="rId88" location="/summary" xr:uid="{36DB8854-B664-4B45-86B1-71A127F221B0}"/>
+    <hyperlink ref="B43" r:id="rId89" location="/summary" xr:uid="{16694492-06E8-45D8-8D1B-B8A3DF4AC9D5}"/>
+    <hyperlink ref="B44" r:id="rId90" location="/summary" xr:uid="{9854F6E8-3E5F-4518-8944-1A4E66D48382}"/>
+    <hyperlink ref="B45" r:id="rId91" location="/summary" xr:uid="{883A199B-7D7C-4FFD-940B-86C5AC4651EF}"/>
+    <hyperlink ref="E23" r:id="rId92" xr:uid="{5D61A60F-EF84-46C4-818E-92709384E491}"/>
+    <hyperlink ref="E26" r:id="rId93" xr:uid="{B8F94E19-DD69-45F7-8CDC-C62BF5BB5A59}"/>
+    <hyperlink ref="E28" r:id="rId94" xr:uid="{749551B2-B6C1-4DC8-977F-D0A40E9FB7CB}"/>
+    <hyperlink ref="E29" r:id="rId95" xr:uid="{DB97BB73-2C5C-4BB7-AAD1-9F3E73AEF9FA}"/>
+    <hyperlink ref="E47" r:id="rId96" xr:uid="{7F0954D5-9E77-46DF-8A79-7B7D5CDD9561}"/>
     <hyperlink ref="B4" r:id="rId97" xr:uid="{52B7C2FF-613F-441D-B747-455011D88B94}"/>
     <hyperlink ref="M4" r:id="rId98" xr:uid="{25F22962-E187-47E7-8740-E5480B5E0924}"/>
     <hyperlink ref="M5" r:id="rId99" display="https://open.coki.ac/data/" xr:uid="{DB2ED5D1-682A-4FEC-8903-1DDA7A54D005}"/>
     <hyperlink ref="M2" r:id="rId100" xr:uid="{BAC31D3C-8E3A-4527-A22B-4B4925B7E268}"/>
     <hyperlink ref="M3" r:id="rId101" xr:uid="{1590F783-A4BA-42E1-85A5-DD3C31BC85F1}"/>
-    <hyperlink ref="M52" r:id="rId102" display="https://doi.org/10.5281/zenodo.14627194" xr:uid="{7505D7BB-66C2-4946-842B-C435F7CBDBBA}"/>
-    <hyperlink ref="B55" r:id="rId103" xr:uid="{1C43044B-9080-4167-A7D9-997EC0FFC79E}"/>
-    <hyperlink ref="E55" r:id="rId104" xr:uid="{EA10523E-0AE4-4617-A677-8EFF38033C92}"/>
-    <hyperlink ref="B30" r:id="rId105" xr:uid="{686ADC90-E960-4F15-968A-1B3CF6560964}"/>
-    <hyperlink ref="B29" r:id="rId106" xr:uid="{8F493C13-3C3A-4E8A-B0B6-3282B660B08B}"/>
+    <hyperlink ref="M53" r:id="rId102" display="https://doi.org/10.5281/zenodo.14627194" xr:uid="{7505D7BB-66C2-4946-842B-C435F7CBDBBA}"/>
+    <hyperlink ref="B56" r:id="rId103" xr:uid="{1C43044B-9080-4167-A7D9-997EC0FFC79E}"/>
+    <hyperlink ref="E56" r:id="rId104" xr:uid="{EA10523E-0AE4-4617-A677-8EFF38033C92}"/>
+    <hyperlink ref="B31" r:id="rId105" xr:uid="{686ADC90-E960-4F15-968A-1B3CF6560964}"/>
+    <hyperlink ref="B30" r:id="rId106" xr:uid="{8F493C13-3C3A-4E8A-B0B6-3282B660B08B}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.39409448818897608" bottom="0.39409448818897608" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId107"/>

--- a/files/Dashboards_Website.xlsx
+++ b/files/Dashboards_Website.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jschneid\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8262E295-56CE-48AD-AC88-E710C10967FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A3CA57-F4C8-45C0-86EC-557F9258D8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1308" yWindow="4308" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="343">
   <si>
     <t>NAME</t>
   </si>
@@ -1048,6 +1051,24 @@
   </si>
   <si>
     <t>data availability: https://blog.europepmc.org/2020/02/europe-pmc-funders-dashboard.html</t>
+  </si>
+  <si>
+    <t>https://monitor.openscience.si/</t>
+  </si>
+  <si>
+    <t>2010–2025</t>
+  </si>
+  <si>
+    <t>Open Science Monitor</t>
+  </si>
+  <si>
+    <t>The Slovenian Research and Innovation Agency (ARIS)</t>
+  </si>
+  <si>
+    <t>https://ror.org/059bp8k51</t>
+  </si>
+  <si>
+    <t>SVN</t>
   </si>
 </sst>
 </file>
@@ -1476,30 +1497,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N85"/>
+  <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="49.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.796875" style="2" customWidth="1"/>
-    <col min="6" max="8" width="11.19921875" style="2"/>
-    <col min="9" max="9" width="27.59765625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.796875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.59765625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.3984375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="37.59765625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.296875" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="11.19921875" style="2"/>
+    <col min="5" max="5" width="20.83203125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="11.1640625" style="2"/>
+    <col min="9" max="9" width="27.58203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.58203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.4140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="37.58203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="11.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1543,7 +1564,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>139</v>
       </c>
@@ -1587,7 +1608,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>140</v>
       </c>
@@ -1631,7 +1652,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>248</v>
       </c>
@@ -1675,7 +1696,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1719,7 +1740,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
@@ -1763,7 +1784,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1807,7 +1828,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>253</v>
       </c>
@@ -1851,7 +1872,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1895,7 +1916,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -1939,7 +1960,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1983,7 +2004,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
@@ -2027,7 +2048,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>158</v>
       </c>
@@ -2071,7 +2092,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>165</v>
       </c>
@@ -2115,7 +2136,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
@@ -2159,7 +2180,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>169</v>
       </c>
@@ -2203,7 +2224,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>170</v>
       </c>
@@ -2247,7 +2268,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>176</v>
       </c>
@@ -2291,7 +2312,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>331</v>
       </c>
@@ -2335,7 +2356,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -2379,7 +2400,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>70</v>
       </c>
@@ -2423,7 +2444,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
@@ -2467,7 +2488,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -2511,7 +2532,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -2555,7 +2576,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
@@ -2599,7 +2620,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>69</v>
       </c>
@@ -2643,7 +2664,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>328</v>
       </c>
@@ -2687,7 +2708,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -2731,7 +2752,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -2775,7 +2796,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>319</v>
       </c>
@@ -2819,7 +2840,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>316</v>
       </c>
@@ -2863,7 +2884,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>189</v>
       </c>
@@ -2907,7 +2928,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>194</v>
       </c>
@@ -2951,7 +2972,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>198</v>
       </c>
@@ -2995,7 +3016,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>203</v>
       </c>
@@ -3039,7 +3060,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>207</v>
       </c>
@@ -3083,7 +3104,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>211</v>
       </c>
@@ -3127,7 +3148,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>215</v>
       </c>
@@ -3171,7 +3192,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>219</v>
       </c>
@@ -3215,7 +3236,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>222</v>
       </c>
@@ -3259,7 +3280,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>227</v>
       </c>
@@ -3303,7 +3324,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>231</v>
       </c>
@@ -3347,7 +3368,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>235</v>
       </c>
@@ -3391,7 +3412,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>239</v>
       </c>
@@ -3435,7 +3456,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>243</v>
       </c>
@@ -3479,7 +3500,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>161</v>
       </c>
@@ -3523,7 +3544,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>65</v>
       </c>
@@ -3567,7 +3588,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>67</v>
       </c>
@@ -3611,65 +3632,65 @@
         <v>254</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>30</v>
+        <v>339</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>337</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>125</v>
+        <v>340</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>113</v>
+        <v>341</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>49</v>
+        <v>342</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>264</v>
+        <v>147</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>131</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>292</v>
+        <v>147</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>52</v>
@@ -3678,42 +3699,42 @@
         <v>29</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>56</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>147</v>
+        <v>265</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>147</v>
+        <v>264</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>290</v>
+        <v>131</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>52</v>
@@ -3722,13 +3743,13 @@
         <v>29</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>267</v>
+        <v>147</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>147</v>
@@ -3737,27 +3758,27 @@
         <v>290</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>52</v>
@@ -3769,10 +3790,10 @@
         <v>43</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>147</v>
+        <v>267</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>147</v>
@@ -3781,27 +3802,27 @@
         <v>290</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>52</v>
@@ -3816,36 +3837,36 @@
         <v>56</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>267</v>
+        <v>147</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M53" s="5" t="s">
-        <v>309</v>
+        <v>290</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>52</v>
@@ -3860,36 +3881,36 @@
         <v>56</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>147</v>
+        <v>267</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>147</v>
+        <v>265</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M54" s="2" t="s">
-        <v>295</v>
+      <c r="M54" s="5" t="s">
+        <v>309</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>39</v>
+        <v>76</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>52</v>
@@ -3901,39 +3922,39 @@
         <v>43</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>268</v>
+        <v>147</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>131</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>311</v>
+        <v>38</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>312</v>
+        <v>39</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>313</v>
+        <v>136</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>314</v>
+        <v>135</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>52</v>
@@ -3942,42 +3963,42 @@
         <v>29</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>147</v>
+        <v>268</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>147</v>
+        <v>265</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>131</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>181</v>
+        <v>311</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>180</v>
+        <v>312</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>182</v>
+        <v>313</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>183</v>
+        <v>314</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>52</v>
@@ -3986,42 +4007,42 @@
         <v>29</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>184</v>
+        <v>49</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>131</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>80</v>
+      <c r="D58" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>52</v>
@@ -4030,7 +4051,7 @@
         <v>29</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>152</v>
@@ -4051,21 +4072,21 @@
         <v>254</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>247</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>186</v>
+      <c r="D59" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>52</v>
@@ -4074,7 +4095,7 @@
         <v>29</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>188</v>
+        <v>43</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>152</v>
@@ -4095,55 +4116,99 @@
         <v>254</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="5"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D66" s="4"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="3"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="5"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B62" s="5"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D67" s="4"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B71" s="3"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B72" s="5"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="3"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B73" s="5"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="3"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="3"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="5"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4162,13 +4227,13 @@
     <hyperlink ref="B47" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="B24" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="B26" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B58" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B49" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B50" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B51" r:id="rId18" location="tabStart" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B52" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B53" r:id="rId20" location="tabOA" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B54" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B59" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B50" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B51" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B52" r:id="rId18" location="tabStart" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B53" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B54" r:id="rId20" location="tabOA" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B55" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="B10" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="B9" r:id="rId23" xr:uid="{2E978BF9-FAC6-4434-8A61-095820344F8E}"/>
     <hyperlink ref="B6" r:id="rId24" xr:uid="{7DE1F29E-C0EB-4D5D-AE2E-454D5BEF365B}"/>
@@ -4178,14 +4243,14 @@
     <hyperlink ref="B28" r:id="rId28" xr:uid="{F77EA1F6-9ABC-4FEF-B834-6397EA503F9C}"/>
     <hyperlink ref="B27" r:id="rId29" xr:uid="{E7B74F71-7B2B-4907-B7F2-A8ADE38CD488}"/>
     <hyperlink ref="E3" r:id="rId30" xr:uid="{3ADB5C4A-E316-42AC-AEB5-5C03EBAA513E}"/>
-    <hyperlink ref="E58" r:id="rId31" xr:uid="{9601B733-7355-4C0B-9C0E-F6BCC4EA8DE9}"/>
+    <hyperlink ref="E59" r:id="rId31" xr:uid="{9601B733-7355-4C0B-9C0E-F6BCC4EA8DE9}"/>
     <hyperlink ref="E12" r:id="rId32" xr:uid="{D541F439-354D-4A23-AC17-3748FA08F9A2}"/>
-    <hyperlink ref="E49" r:id="rId33" xr:uid="{6232C42B-B80A-40CE-858B-59ED7C0E2E04}"/>
-    <hyperlink ref="E50" r:id="rId34" xr:uid="{58801C6C-6A1C-4AEC-BC83-814992A0795E}"/>
-    <hyperlink ref="E51" r:id="rId35" display="https://ror.org/001w7jn25" xr:uid="{F9BD791C-817E-4AD2-9AC8-EE07210D4210}"/>
-    <hyperlink ref="E52" r:id="rId36" xr:uid="{A8AE3B95-8296-4F85-B144-496311EE9374}"/>
-    <hyperlink ref="E53" r:id="rId37" display="https://ror.org/046ak2485" xr:uid="{C29AA756-D996-4217-891B-97B7A3C30910}"/>
-    <hyperlink ref="E54" r:id="rId38" xr:uid="{1D2EE263-E95F-46C3-AF25-593CA4061797}"/>
+    <hyperlink ref="E50" r:id="rId33" xr:uid="{6232C42B-B80A-40CE-858B-59ED7C0E2E04}"/>
+    <hyperlink ref="E51" r:id="rId34" xr:uid="{58801C6C-6A1C-4AEC-BC83-814992A0795E}"/>
+    <hyperlink ref="E52" r:id="rId35" display="https://ror.org/001w7jn25" xr:uid="{F9BD791C-817E-4AD2-9AC8-EE07210D4210}"/>
+    <hyperlink ref="E53" r:id="rId36" xr:uid="{A8AE3B95-8296-4F85-B144-496311EE9374}"/>
+    <hyperlink ref="E54" r:id="rId37" display="https://ror.org/046ak2485" xr:uid="{C29AA756-D996-4217-891B-97B7A3C30910}"/>
+    <hyperlink ref="E55" r:id="rId38" xr:uid="{1D2EE263-E95F-46C3-AF25-593CA4061797}"/>
     <hyperlink ref="E2" r:id="rId39" xr:uid="{7CDDC8F0-EDA1-45AE-808E-11EDE8ED16C8}"/>
     <hyperlink ref="E5" r:id="rId40" xr:uid="{3A0FC5E2-BB0B-491F-A2BB-C21F3A80CBE7}"/>
     <hyperlink ref="E6" r:id="rId41" xr:uid="{2BC3348D-A624-44A6-8799-21F5E041567A}"/>
@@ -4197,14 +4262,14 @@
     <hyperlink ref="E24" r:id="rId47" xr:uid="{0548E347-4912-43D7-A622-2508B2333351}"/>
     <hyperlink ref="E27" r:id="rId48" xr:uid="{A8AAA73B-8AA0-4286-8546-B00725169F40}"/>
     <hyperlink ref="E8" r:id="rId49" xr:uid="{AA26F3F5-37F5-4224-8CD6-D258C4FAA10D}"/>
-    <hyperlink ref="E55" r:id="rId50" xr:uid="{33BA3911-157F-4B5F-B224-926A665413ED}"/>
+    <hyperlink ref="E56" r:id="rId50" xr:uid="{33BA3911-157F-4B5F-B224-926A665413ED}"/>
     <hyperlink ref="B8" r:id="rId51" xr:uid="{09FCB9D2-25B2-4442-A69D-77E3413519EF}"/>
-    <hyperlink ref="B55" r:id="rId52" xr:uid="{4B739AEA-7F3F-45D6-B075-72568EA43671}"/>
+    <hyperlink ref="B56" r:id="rId52" xr:uid="{4B739AEA-7F3F-45D6-B075-72568EA43671}"/>
     <hyperlink ref="E46" r:id="rId53" xr:uid="{11697F8A-9521-43AE-95AC-F7C8DC927828}"/>
     <hyperlink ref="E16" r:id="rId54" xr:uid="{00FFFA05-4F61-43C4-B140-6BB688AA3AB5}"/>
     <hyperlink ref="E18" r:id="rId55" xr:uid="{BCDD8F9A-1A73-459B-BD95-87BA9F6737EA}"/>
-    <hyperlink ref="E57" r:id="rId56" xr:uid="{983DC9EF-701A-429D-80E1-7BCF0B0AB211}"/>
-    <hyperlink ref="E59" r:id="rId57" xr:uid="{CA6D0EA0-A9E8-4135-8FF7-6D68CDEAA7CD}"/>
+    <hyperlink ref="E58" r:id="rId56" xr:uid="{983DC9EF-701A-429D-80E1-7BCF0B0AB211}"/>
+    <hyperlink ref="E60" r:id="rId57" xr:uid="{CA6D0EA0-A9E8-4135-8FF7-6D68CDEAA7CD}"/>
     <hyperlink ref="E32" r:id="rId58" xr:uid="{0CDA4E31-1E14-4458-A0AC-AD565254D257}"/>
     <hyperlink ref="E34" r:id="rId59" xr:uid="{DF544658-C5B8-453E-A253-D7E24EC78999}"/>
     <hyperlink ref="B32" r:id="rId60" location="/summary" xr:uid="{6617F167-467C-4718-B0F8-7422A40D657C}"/>
@@ -4228,8 +4293,8 @@
     <hyperlink ref="B16" r:id="rId78" xr:uid="{CF4AF49A-0AC7-4B2E-B50E-A7C581697FD0}"/>
     <hyperlink ref="B17" r:id="rId79" xr:uid="{E6653F73-E021-4393-A2D2-29A5B1C99900}"/>
     <hyperlink ref="B18" r:id="rId80" xr:uid="{F6AC3892-79FB-4721-BB15-FEA70165FAA2}"/>
-    <hyperlink ref="B57" r:id="rId81" xr:uid="{7BE9EA28-27E4-467C-8A7D-B08206A8C247}"/>
-    <hyperlink ref="B59" r:id="rId82" xr:uid="{FCFA5DBC-E4A3-42D2-B584-E1B3C050FA12}"/>
+    <hyperlink ref="B58" r:id="rId81" xr:uid="{7BE9EA28-27E4-467C-8A7D-B08206A8C247}"/>
+    <hyperlink ref="B60" r:id="rId82" xr:uid="{FCFA5DBC-E4A3-42D2-B584-E1B3C050FA12}"/>
     <hyperlink ref="B36" r:id="rId83" location="/summary" xr:uid="{BD5570CD-2974-47D3-BECD-FBF1A0103586}"/>
     <hyperlink ref="B38" r:id="rId84" location="/summary" xr:uid="{A04BAB6F-1883-444C-A660-93173657731B}"/>
     <hyperlink ref="B39" r:id="rId85" location="/summary" xr:uid="{AFDD9191-F1EA-4D82-B791-F8D71B79299A}"/>
@@ -4249,14 +4314,15 @@
     <hyperlink ref="M5" r:id="rId99" display="https://open.coki.ac/data/" xr:uid="{DB2ED5D1-682A-4FEC-8903-1DDA7A54D005}"/>
     <hyperlink ref="M2" r:id="rId100" xr:uid="{BAC31D3C-8E3A-4527-A22B-4B4925B7E268}"/>
     <hyperlink ref="M3" r:id="rId101" xr:uid="{1590F783-A4BA-42E1-85A5-DD3C31BC85F1}"/>
-    <hyperlink ref="M53" r:id="rId102" display="https://doi.org/10.5281/zenodo.14627194" xr:uid="{7505D7BB-66C2-4946-842B-C435F7CBDBBA}"/>
-    <hyperlink ref="B56" r:id="rId103" xr:uid="{1C43044B-9080-4167-A7D9-997EC0FFC79E}"/>
-    <hyperlink ref="E56" r:id="rId104" xr:uid="{EA10523E-0AE4-4617-A677-8EFF38033C92}"/>
+    <hyperlink ref="M54" r:id="rId102" display="https://doi.org/10.5281/zenodo.14627194" xr:uid="{7505D7BB-66C2-4946-842B-C435F7CBDBBA}"/>
+    <hyperlink ref="B57" r:id="rId103" xr:uid="{1C43044B-9080-4167-A7D9-997EC0FFC79E}"/>
+    <hyperlink ref="E57" r:id="rId104" xr:uid="{EA10523E-0AE4-4617-A677-8EFF38033C92}"/>
     <hyperlink ref="B31" r:id="rId105" xr:uid="{686ADC90-E960-4F15-968A-1B3CF6560964}"/>
     <hyperlink ref="B30" r:id="rId106" xr:uid="{8F493C13-3C3A-4E8A-B0B6-3282B660B08B}"/>
+    <hyperlink ref="E49" r:id="rId107" xr:uid="{862594BE-511B-4D5C-A6BF-57090C6388C3}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.39409448818897608" bottom="0.39409448818897608" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId107"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId108"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -4270,10 +4336,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0" right="0" top="0.39409448818897608" bottom="0.39409448818897608" header="0" footer="0"/>
@@ -4290,10 +4356,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0" right="0" top="0.39409448818897608" bottom="0.39409448818897608" header="0" footer="0"/>

--- a/files/Dashboards_Website.xlsx
+++ b/files/Dashboards_Website.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jschneid\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A3CA57-F4C8-45C0-86EC-557F9258D8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6DF6C4-9018-4A5B-9968-2E872FD3E5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="348">
   <si>
     <t>NAME</t>
   </si>
@@ -1069,6 +1069,21 @@
   </si>
   <si>
     <t>SVN</t>
+  </si>
+  <si>
+    <t>Open Access an der Leibniz Universität Hannover</t>
+  </si>
+  <si>
+    <t>2019–2024</t>
+  </si>
+  <si>
+    <t>Leibniz University Hannover</t>
+  </si>
+  <si>
+    <t>https://ror.org/0304hq317</t>
+  </si>
+  <si>
+    <t>https://www.uni-hannover.de/en/universitaet/profil/leitbild-und-strategien/forschung/open-science/open-access</t>
   </si>
 </sst>
 </file>
@@ -1499,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4158,6 +4173,50 @@
       </c>
       <c r="N60" s="2" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
@@ -4320,9 +4379,11 @@
     <hyperlink ref="B31" r:id="rId105" xr:uid="{686ADC90-E960-4F15-968A-1B3CF6560964}"/>
     <hyperlink ref="B30" r:id="rId106" xr:uid="{8F493C13-3C3A-4E8A-B0B6-3282B660B08B}"/>
     <hyperlink ref="E49" r:id="rId107" xr:uid="{862594BE-511B-4D5C-A6BF-57090C6388C3}"/>
+    <hyperlink ref="B61" r:id="rId108" xr:uid="{96FC04AF-877C-431F-B3F8-4D1E19D472E6}"/>
+    <hyperlink ref="E61" r:id="rId109" xr:uid="{45CD4A49-4D8B-4A86-9590-D2A3B3CCB9E1}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.39409448818897608" bottom="0.39409448818897608" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId108"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId110"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/files/Dashboards_Website.xlsx
+++ b/files/Dashboards_Website.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jschneid\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6DF6C4-9018-4A5B-9968-2E872FD3E5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219BCE34-4FD2-4B73-8069-C43FF485474F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="10010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="364">
   <si>
     <t>NAME</t>
   </si>
@@ -1084,6 +1084,54 @@
   </si>
   <si>
     <t>https://www.uni-hannover.de/en/universitaet/profil/leitbild-und-strategien/forschung/open-science/open-access</t>
+  </si>
+  <si>
+    <t>https://portalrecerca.csuc.cat/estadistiques/publicacions/ao#pills-evolucio</t>
+  </si>
+  <si>
+    <t>1918–2025</t>
+  </si>
+  <si>
+    <t>Consorci de Serveis Universitaris de Catalunya (CSUC)</t>
+  </si>
+  <si>
+    <t>https://ror.org/007rty190</t>
+  </si>
+  <si>
+    <t>Open Access</t>
+  </si>
+  <si>
+    <t>Open Access Monitor Korea</t>
+  </si>
+  <si>
+    <t>https://www.kesli.or.kr/oamk/kArticle/kArticle.do</t>
+  </si>
+  <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>https://ror.org/01k4yrm29</t>
+  </si>
+  <si>
+    <t>Korean E-resource Service for Library (KESLI), Korea Institute of Science &amp; Technology Information (KISTI)</t>
+  </si>
+  <si>
+    <t>2009–2021</t>
+  </si>
+  <si>
+    <t>Open access in numbers</t>
+  </si>
+  <si>
+    <t>https://www.kb.se/for-bibliotekssektorn/eng/open-science/open-access/open-access-in-numbers.html</t>
+  </si>
+  <si>
+    <t>National Library of Sweden (KB)</t>
+  </si>
+  <si>
+    <t>https://ror.org/049bh0z35</t>
+  </si>
+  <si>
+    <t>SWE</t>
   </si>
 </sst>
 </file>
@@ -1512,10 +1560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N86"/>
+  <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O61" sqref="O61"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3693,43 +3741,43 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>30</v>
+        <v>353</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>354</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>125</v>
+        <v>357</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>113</v>
+        <v>356</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>49</v>
+        <v>355</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>264</v>
+        <v>147</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>131</v>
+        <v>290</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>292</v>
+        <v>147</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>147</v>
@@ -3737,28 +3785,28 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>31</v>
+        <v>359</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>360</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>115</v>
+        <v>361</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>116</v>
+        <v>362</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>51</v>
+        <v>363</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>56</v>
@@ -3770,10 +3818,10 @@
         <v>147</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>290</v>
+        <v>131</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>147</v>
@@ -3781,19 +3829,19 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>52</v>
@@ -3802,22 +3850,22 @@
         <v>29</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>147</v>
+        <v>264</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>290</v>
+        <v>131</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>147</v>
@@ -3825,19 +3873,19 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>52</v>
@@ -3846,7 +3894,7 @@
         <v>29</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>56</v>
@@ -3861,7 +3909,7 @@
         <v>290</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>147</v>
@@ -3869,19 +3917,19 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>34</v>
+        <v>348</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>127</v>
+        <v>349</v>
+      </c>
+      <c r="D54" t="s">
+        <v>350</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>120</v>
+        <v>351</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>52</v>
@@ -3890,22 +3938,22 @@
         <v>29</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>56</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>267</v>
+        <v>147</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M54" s="5" t="s">
-        <v>309</v>
+        <v>147</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>147</v>
@@ -3913,19 +3961,19 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>52</v>
@@ -3937,19 +3985,19 @@
         <v>43</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>147</v>
+        <v>267</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>147</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>131</v>
+        <v>290</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>147</v>
@@ -3957,19 +4005,19 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>39</v>
+        <v>74</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>52</v>
@@ -3981,19 +4029,19 @@
         <v>43</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>268</v>
+        <v>147</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>131</v>
+        <v>290</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>147</v>
@@ -4001,19 +4049,19 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>312</v>
+        <v>75</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>313</v>
+        <v>127</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>314</v>
+        <v>120</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>52</v>
@@ -4022,22 +4070,22 @@
         <v>29</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>56</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>147</v>
+        <v>267</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>147</v>
+        <v>265</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M57" s="2" t="s">
-        <v>315</v>
+      <c r="M57" s="5" t="s">
+        <v>309</v>
       </c>
       <c r="N57" s="2" t="s">
         <v>147</v>
@@ -4045,19 +4093,19 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>180</v>
+        <v>76</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>52</v>
@@ -4066,42 +4114,42 @@
         <v>29</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>184</v>
+        <v>43</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>131</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>254</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>80</v>
+        <v>299</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>52</v>
@@ -4113,10 +4161,10 @@
         <v>43</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>265</v>
@@ -4125,27 +4173,27 @@
         <v>131</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>254</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>185</v>
+        <v>311</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>247</v>
+        <v>312</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>186</v>
+        <v>313</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>187</v>
+        <v>314</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>52</v>
@@ -4154,42 +4202,42 @@
         <v>29</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>188</v>
+        <v>49</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>131</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>254</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>343</v>
+        <v>181</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>347</v>
+        <v>180</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>346</v>
+        <v>182</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>183</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>52</v>
@@ -4198,76 +4246,208 @@
         <v>29</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>147</v>
+        <v>265</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>147</v>
+        <v>265</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>131</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>147</v>
+        <v>275</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>147</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B62" s="5"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D67" s="4"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B71" s="3"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="5"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B73" s="5"/>
+      <c r="A62" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="5"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D70" s="4"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B75" s="3"/>
+      <c r="B75" s="5"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="3"/>
+      <c r="B76" s="5"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
     </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="3"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3"/>
+    </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="5"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="3"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="3"/>
+      <c r="A82" s="3"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="3"/>
+      <c r="A85" s="5"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="3"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="3"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4286,13 +4466,13 @@
     <hyperlink ref="B47" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="B24" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="B26" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B59" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B50" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B51" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B52" r:id="rId18" location="tabStart" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B53" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B54" r:id="rId20" location="tabOA" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B55" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B62" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B52" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B53" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B55" r:id="rId18" location="tabStart" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B56" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B57" r:id="rId20" location="tabOA" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B58" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="B10" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="B9" r:id="rId23" xr:uid="{2E978BF9-FAC6-4434-8A61-095820344F8E}"/>
     <hyperlink ref="B6" r:id="rId24" xr:uid="{7DE1F29E-C0EB-4D5D-AE2E-454D5BEF365B}"/>
@@ -4302,14 +4482,14 @@
     <hyperlink ref="B28" r:id="rId28" xr:uid="{F77EA1F6-9ABC-4FEF-B834-6397EA503F9C}"/>
     <hyperlink ref="B27" r:id="rId29" xr:uid="{E7B74F71-7B2B-4907-B7F2-A8ADE38CD488}"/>
     <hyperlink ref="E3" r:id="rId30" xr:uid="{3ADB5C4A-E316-42AC-AEB5-5C03EBAA513E}"/>
-    <hyperlink ref="E59" r:id="rId31" xr:uid="{9601B733-7355-4C0B-9C0E-F6BCC4EA8DE9}"/>
+    <hyperlink ref="E62" r:id="rId31" xr:uid="{9601B733-7355-4C0B-9C0E-F6BCC4EA8DE9}"/>
     <hyperlink ref="E12" r:id="rId32" xr:uid="{D541F439-354D-4A23-AC17-3748FA08F9A2}"/>
-    <hyperlink ref="E50" r:id="rId33" xr:uid="{6232C42B-B80A-40CE-858B-59ED7C0E2E04}"/>
-    <hyperlink ref="E51" r:id="rId34" xr:uid="{58801C6C-6A1C-4AEC-BC83-814992A0795E}"/>
-    <hyperlink ref="E52" r:id="rId35" display="https://ror.org/001w7jn25" xr:uid="{F9BD791C-817E-4AD2-9AC8-EE07210D4210}"/>
-    <hyperlink ref="E53" r:id="rId36" xr:uid="{A8AE3B95-8296-4F85-B144-496311EE9374}"/>
-    <hyperlink ref="E54" r:id="rId37" display="https://ror.org/046ak2485" xr:uid="{C29AA756-D996-4217-891B-97B7A3C30910}"/>
-    <hyperlink ref="E55" r:id="rId38" xr:uid="{1D2EE263-E95F-46C3-AF25-593CA4061797}"/>
+    <hyperlink ref="E52" r:id="rId33" xr:uid="{6232C42B-B80A-40CE-858B-59ED7C0E2E04}"/>
+    <hyperlink ref="E53" r:id="rId34" xr:uid="{58801C6C-6A1C-4AEC-BC83-814992A0795E}"/>
+    <hyperlink ref="E55" r:id="rId35" display="https://ror.org/001w7jn25" xr:uid="{F9BD791C-817E-4AD2-9AC8-EE07210D4210}"/>
+    <hyperlink ref="E56" r:id="rId36" xr:uid="{A8AE3B95-8296-4F85-B144-496311EE9374}"/>
+    <hyperlink ref="E57" r:id="rId37" display="https://ror.org/046ak2485" xr:uid="{C29AA756-D996-4217-891B-97B7A3C30910}"/>
+    <hyperlink ref="E58" r:id="rId38" xr:uid="{1D2EE263-E95F-46C3-AF25-593CA4061797}"/>
     <hyperlink ref="E2" r:id="rId39" xr:uid="{7CDDC8F0-EDA1-45AE-808E-11EDE8ED16C8}"/>
     <hyperlink ref="E5" r:id="rId40" xr:uid="{3A0FC5E2-BB0B-491F-A2BB-C21F3A80CBE7}"/>
     <hyperlink ref="E6" r:id="rId41" xr:uid="{2BC3348D-A624-44A6-8799-21F5E041567A}"/>
@@ -4321,14 +4501,14 @@
     <hyperlink ref="E24" r:id="rId47" xr:uid="{0548E347-4912-43D7-A622-2508B2333351}"/>
     <hyperlink ref="E27" r:id="rId48" xr:uid="{A8AAA73B-8AA0-4286-8546-B00725169F40}"/>
     <hyperlink ref="E8" r:id="rId49" xr:uid="{AA26F3F5-37F5-4224-8CD6-D258C4FAA10D}"/>
-    <hyperlink ref="E56" r:id="rId50" xr:uid="{33BA3911-157F-4B5F-B224-926A665413ED}"/>
+    <hyperlink ref="E59" r:id="rId50" xr:uid="{33BA3911-157F-4B5F-B224-926A665413ED}"/>
     <hyperlink ref="B8" r:id="rId51" xr:uid="{09FCB9D2-25B2-4442-A69D-77E3413519EF}"/>
-    <hyperlink ref="B56" r:id="rId52" xr:uid="{4B739AEA-7F3F-45D6-B075-72568EA43671}"/>
+    <hyperlink ref="B59" r:id="rId52" xr:uid="{4B739AEA-7F3F-45D6-B075-72568EA43671}"/>
     <hyperlink ref="E46" r:id="rId53" xr:uid="{11697F8A-9521-43AE-95AC-F7C8DC927828}"/>
     <hyperlink ref="E16" r:id="rId54" xr:uid="{00FFFA05-4F61-43C4-B140-6BB688AA3AB5}"/>
     <hyperlink ref="E18" r:id="rId55" xr:uid="{BCDD8F9A-1A73-459B-BD95-87BA9F6737EA}"/>
-    <hyperlink ref="E58" r:id="rId56" xr:uid="{983DC9EF-701A-429D-80E1-7BCF0B0AB211}"/>
-    <hyperlink ref="E60" r:id="rId57" xr:uid="{CA6D0EA0-A9E8-4135-8FF7-6D68CDEAA7CD}"/>
+    <hyperlink ref="E61" r:id="rId56" xr:uid="{983DC9EF-701A-429D-80E1-7BCF0B0AB211}"/>
+    <hyperlink ref="E63" r:id="rId57" xr:uid="{CA6D0EA0-A9E8-4135-8FF7-6D68CDEAA7CD}"/>
     <hyperlink ref="E32" r:id="rId58" xr:uid="{0CDA4E31-1E14-4458-A0AC-AD565254D257}"/>
     <hyperlink ref="E34" r:id="rId59" xr:uid="{DF544658-C5B8-453E-A253-D7E24EC78999}"/>
     <hyperlink ref="B32" r:id="rId60" location="/summary" xr:uid="{6617F167-467C-4718-B0F8-7422A40D657C}"/>
@@ -4352,8 +4532,8 @@
     <hyperlink ref="B16" r:id="rId78" xr:uid="{CF4AF49A-0AC7-4B2E-B50E-A7C581697FD0}"/>
     <hyperlink ref="B17" r:id="rId79" xr:uid="{E6653F73-E021-4393-A2D2-29A5B1C99900}"/>
     <hyperlink ref="B18" r:id="rId80" xr:uid="{F6AC3892-79FB-4721-BB15-FEA70165FAA2}"/>
-    <hyperlink ref="B58" r:id="rId81" xr:uid="{7BE9EA28-27E4-467C-8A7D-B08206A8C247}"/>
-    <hyperlink ref="B60" r:id="rId82" xr:uid="{FCFA5DBC-E4A3-42D2-B584-E1B3C050FA12}"/>
+    <hyperlink ref="B61" r:id="rId81" xr:uid="{7BE9EA28-27E4-467C-8A7D-B08206A8C247}"/>
+    <hyperlink ref="B63" r:id="rId82" xr:uid="{FCFA5DBC-E4A3-42D2-B584-E1B3C050FA12}"/>
     <hyperlink ref="B36" r:id="rId83" location="/summary" xr:uid="{BD5570CD-2974-47D3-BECD-FBF1A0103586}"/>
     <hyperlink ref="B38" r:id="rId84" location="/summary" xr:uid="{A04BAB6F-1883-444C-A660-93173657731B}"/>
     <hyperlink ref="B39" r:id="rId85" location="/summary" xr:uid="{AFDD9191-F1EA-4D82-B791-F8D71B79299A}"/>
@@ -4373,17 +4553,19 @@
     <hyperlink ref="M5" r:id="rId99" display="https://open.coki.ac/data/" xr:uid="{DB2ED5D1-682A-4FEC-8903-1DDA7A54D005}"/>
     <hyperlink ref="M2" r:id="rId100" xr:uid="{BAC31D3C-8E3A-4527-A22B-4B4925B7E268}"/>
     <hyperlink ref="M3" r:id="rId101" xr:uid="{1590F783-A4BA-42E1-85A5-DD3C31BC85F1}"/>
-    <hyperlink ref="M54" r:id="rId102" display="https://doi.org/10.5281/zenodo.14627194" xr:uid="{7505D7BB-66C2-4946-842B-C435F7CBDBBA}"/>
-    <hyperlink ref="B57" r:id="rId103" xr:uid="{1C43044B-9080-4167-A7D9-997EC0FFC79E}"/>
-    <hyperlink ref="E57" r:id="rId104" xr:uid="{EA10523E-0AE4-4617-A677-8EFF38033C92}"/>
+    <hyperlink ref="M57" r:id="rId102" display="https://doi.org/10.5281/zenodo.14627194" xr:uid="{7505D7BB-66C2-4946-842B-C435F7CBDBBA}"/>
+    <hyperlink ref="B60" r:id="rId103" xr:uid="{1C43044B-9080-4167-A7D9-997EC0FFC79E}"/>
+    <hyperlink ref="E60" r:id="rId104" xr:uid="{EA10523E-0AE4-4617-A677-8EFF38033C92}"/>
     <hyperlink ref="B31" r:id="rId105" xr:uid="{686ADC90-E960-4F15-968A-1B3CF6560964}"/>
     <hyperlink ref="B30" r:id="rId106" xr:uid="{8F493C13-3C3A-4E8A-B0B6-3282B660B08B}"/>
     <hyperlink ref="E49" r:id="rId107" xr:uid="{862594BE-511B-4D5C-A6BF-57090C6388C3}"/>
-    <hyperlink ref="B61" r:id="rId108" xr:uid="{96FC04AF-877C-431F-B3F8-4D1E19D472E6}"/>
-    <hyperlink ref="E61" r:id="rId109" xr:uid="{45CD4A49-4D8B-4A86-9590-D2A3B3CCB9E1}"/>
+    <hyperlink ref="B64" r:id="rId108" xr:uid="{96FC04AF-877C-431F-B3F8-4D1E19D472E6}"/>
+    <hyperlink ref="E64" r:id="rId109" xr:uid="{45CD4A49-4D8B-4A86-9590-D2A3B3CCB9E1}"/>
+    <hyperlink ref="E51" r:id="rId110" xr:uid="{2FF66816-4CE0-4F46-A861-704CA4428860}"/>
+    <hyperlink ref="E50" r:id="rId111" xr:uid="{FDB3B9A7-AD57-41D9-B416-0C44DFE82446}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.39409448818897608" bottom="0.39409448818897608" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId110"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId112"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
